--- a/T16 Lab Cleanup/MRSD Team I Lab Cleanup Worksheet.xlsx
+++ b/T16 Lab Cleanup/MRSD Team I Lab Cleanup Worksheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamfu/Desktop/MRSD Project II/Tasks/T16 Lab Cleanup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA36B92D-D538-A942-9692-D4FDB955A035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E8FB50-8E5F-544C-9077-66BAB59927A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="375">
   <si>
     <t>Standard Lab Bench Items: Category</t>
   </si>
@@ -1117,9 +1117,6 @@
     <t>Quanity @ 04/29/2025</t>
   </si>
   <si>
-    <t>Spring Check @ XX/XX/2025 TA remarks</t>
-  </si>
-  <si>
     <t>TA bought new one, on left table</t>
   </si>
   <si>
@@ -1148,6 +1145,24 @@
   </si>
   <si>
     <t>Quanity @ 08/29/2025</t>
+  </si>
+  <si>
+    <t>Quanity @ 12/03/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fall Lab Cleanup Notes @ 12/03/2025</t>
+  </si>
+  <si>
+    <t>Probe and connectors in black bin near DC power supply</t>
+  </si>
+  <si>
+    <t>Benchtop, 3 empty</t>
+  </si>
+  <si>
+    <t>Benchtop, 1 empty</t>
+  </si>
+  <si>
+    <t>Fall Check @ 12/03/2025 TA remarks</t>
   </si>
 </sst>
 </file>
@@ -1581,11 +1596,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AG864"/>
+  <dimension ref="A1:AI864"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F115" sqref="F115"/>
+      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1595,17 +1610,17 @@
     <col min="3" max="3" width="19.83203125" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" customWidth="1"/>
     <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" customWidth="1"/>
-    <col min="10" max="11" width="12.83203125" customWidth="1"/>
-    <col min="12" max="13" width="36.1640625" customWidth="1"/>
-    <col min="14" max="14" width="8.33203125" customWidth="1"/>
-    <col min="15" max="15" width="77.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="24" width="15" customWidth="1"/>
-    <col min="25" max="33" width="7" customWidth="1"/>
+    <col min="6" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" customWidth="1"/>
+    <col min="11" max="12" width="12.83203125" customWidth="1"/>
+    <col min="13" max="15" width="36.1640625" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" customWidth="1"/>
+    <col min="17" max="17" width="77.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="26" width="15" customWidth="1"/>
+    <col min="27" max="35" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="57" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="43" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1628,31 +1643,35 @@
         <v>358</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>359</v>
-      </c>
       <c r="L1" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="M1" s="10" t="s">
-        <v>361</v>
-      </c>
       <c r="N1" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="P1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -1669,8 +1688,10 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
-    </row>
-    <row r="2" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+    </row>
+    <row r="2" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>197</v>
       </c>
@@ -1698,16 +1719,18 @@
       <c r="I2" s="11">
         <v>0</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="J2" s="11">
+        <v>0</v>
+      </c>
       <c r="K2" s="5"/>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="9"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -1724,8 +1747,10 @@
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
-    </row>
-    <row r="3" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+    </row>
+    <row r="3" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="15"/>
       <c r="B3" s="3" t="s">
         <v>104</v>
@@ -1751,18 +1776,20 @@
       <c r="I3" s="3">
         <v>1</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
       <c r="K3" s="3"/>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -1779,8 +1806,10 @@
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
-    </row>
-    <row r="4" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+    </row>
+    <row r="4" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="3" t="s">
         <v>222</v>
@@ -1806,18 +1835,20 @@
       <c r="I4" s="3">
         <v>2</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="J4" s="3">
+        <v>2</v>
+      </c>
       <c r="K4" s="3"/>
-      <c r="L4" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="M4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>371</v>
+      </c>
       <c r="N4" s="3"/>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -1834,8 +1865,10 @@
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
-    </row>
-    <row r="5" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+    </row>
+    <row r="5" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="3" t="s">
         <v>223</v>
@@ -1861,20 +1894,22 @@
       <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -1891,8 +1926,10 @@
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
-    </row>
-    <row r="6" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+    </row>
+    <row r="6" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="3" t="s">
         <v>225</v>
@@ -1918,16 +1955,18 @@
       <c r="I6" s="12">
         <v>0</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
       <c r="K6" s="3"/>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="3"/>
+      <c r="M6" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="8"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
@@ -1944,8 +1983,10 @@
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
-    </row>
-    <row r="7" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+    </row>
+    <row r="7" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="3" t="s">
         <v>227</v>
@@ -1971,16 +2012,18 @@
       <c r="I7" s="12">
         <v>0</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
       <c r="K7" s="3"/>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="8"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -1997,8 +2040,10 @@
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
-    </row>
-    <row r="8" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+    </row>
+    <row r="8" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="3" t="s">
         <v>229</v>
@@ -2024,16 +2069,18 @@
       <c r="I8" s="12">
         <v>0</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
       <c r="K8" s="3"/>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="3"/>
+      <c r="M8" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="8"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -2050,8 +2097,10 @@
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
-    </row>
-    <row r="9" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+    </row>
+    <row r="9" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
         <v>200</v>
       </c>
@@ -2079,18 +2128,20 @@
       <c r="I9" s="3">
         <v>1</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
       <c r="K9" s="3"/>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -2107,8 +2158,10 @@
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
-    </row>
-    <row r="10" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+    </row>
+    <row r="10" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="3" t="s">
         <v>232</v>
@@ -2134,18 +2187,20 @@
       <c r="I10" s="3">
         <v>1</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
       <c r="K10" s="3"/>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="3"/>
+      <c r="M10" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="4" t="s">
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -2162,8 +2217,10 @@
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
-    </row>
-    <row r="11" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+    </row>
+    <row r="11" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
         <v>201</v>
       </c>
@@ -2191,18 +2248,20 @@
       <c r="I11" s="12">
         <v>0</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="8"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -2219,8 +2278,10 @@
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
-    </row>
-    <row r="12" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+    </row>
+    <row r="12" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="3" t="s">
         <v>235</v>
@@ -2246,18 +2307,20 @@
       <c r="I12" s="12">
         <v>0</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="3"/>
+      <c r="M12" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="8"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -2274,8 +2337,10 @@
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
-    </row>
-    <row r="13" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+    </row>
+    <row r="13" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="3" t="s">
         <v>237</v>
@@ -2301,16 +2366,18 @@
       <c r="I13" s="12">
         <v>0</v>
       </c>
-      <c r="J13" s="3"/>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
       <c r="K13" s="3"/>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="3"/>
+      <c r="M13" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="8"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -2327,8 +2394,10 @@
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
-    </row>
-    <row r="14" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+    </row>
+    <row r="14" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="3" t="s">
         <v>239</v>
@@ -2354,16 +2423,18 @@
       <c r="I14" s="12">
         <v>0</v>
       </c>
-      <c r="J14" s="3"/>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
       <c r="K14" s="3"/>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3"/>
+      <c r="M14" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="8"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2380,8 +2451,10 @@
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
-    </row>
-    <row r="15" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+    </row>
+    <row r="15" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="3" t="s">
         <v>241</v>
@@ -2407,16 +2480,18 @@
       <c r="I15" s="12">
         <v>0</v>
       </c>
-      <c r="J15" s="3"/>
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
       <c r="K15" s="3"/>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="3"/>
+      <c r="M15" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="8"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -2433,8 +2508,10 @@
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
-    </row>
-    <row r="16" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+    </row>
+    <row r="16" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="3" t="s">
         <v>243</v>
@@ -2460,20 +2537,22 @@
       <c r="I16" s="3">
         <v>1</v>
       </c>
-      <c r="J16" s="3"/>
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
       <c r="K16" s="3"/>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="N16" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="M16" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="4" t="s">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2490,8 +2569,10 @@
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
-    </row>
-    <row r="17" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+    </row>
+    <row r="17" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="3" t="s">
         <v>244</v>
@@ -2517,16 +2598,18 @@
       <c r="I17" s="12">
         <v>0</v>
       </c>
-      <c r="J17" s="3"/>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
       <c r="K17" s="3"/>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="3"/>
+      <c r="M17" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="8"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -2543,8 +2626,10 @@
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
-    </row>
-    <row r="18" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+    </row>
+    <row r="18" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="3" t="s">
         <v>246</v>
@@ -2570,16 +2655,18 @@
       <c r="I18" s="12">
         <v>0</v>
       </c>
-      <c r="J18" s="3"/>
+      <c r="J18" s="12">
+        <v>0</v>
+      </c>
       <c r="K18" s="3"/>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="3"/>
+      <c r="M18" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="8"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -2596,8 +2683,10 @@
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
-    </row>
-    <row r="19" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+    </row>
+    <row r="19" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="3" t="s">
         <v>248</v>
@@ -2623,16 +2712,18 @@
       <c r="I19" s="12">
         <v>0</v>
       </c>
-      <c r="J19" s="3"/>
+      <c r="J19" s="12">
+        <v>0</v>
+      </c>
       <c r="K19" s="3"/>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="8"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -2649,8 +2740,10 @@
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
-    </row>
-    <row r="20" spans="1:33" ht="42" x14ac:dyDescent="0.15">
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+    </row>
+    <row r="20" spans="1:35" ht="42" x14ac:dyDescent="0.15">
       <c r="A20" s="15" t="s">
         <v>143</v>
       </c>
@@ -2678,18 +2771,20 @@
       <c r="I20" s="13">
         <v>2</v>
       </c>
-      <c r="J20" s="3"/>
+      <c r="J20" s="13">
+        <v>2</v>
+      </c>
       <c r="K20" s="3"/>
-      <c r="L20" s="6" t="s">
+      <c r="L20" s="3"/>
+      <c r="M20" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="M20" s="6"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="4" t="s">
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -2706,8 +2801,10 @@
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
-    </row>
-    <row r="21" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+    </row>
+    <row r="21" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="3" t="s">
         <v>145</v>
@@ -2733,18 +2830,20 @@
       <c r="I21" s="14">
         <v>2</v>
       </c>
-      <c r="J21" s="3"/>
+      <c r="J21" s="14">
+        <v>2</v>
+      </c>
       <c r="K21" s="3"/>
-      <c r="L21" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="M21" s="6"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="4" t="s">
+      <c r="L21" s="3"/>
+      <c r="M21" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -2761,8 +2860,10 @@
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
-    </row>
-    <row r="22" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+    </row>
+    <row r="22" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="3" t="s">
         <v>147</v>
@@ -2788,18 +2889,20 @@
       <c r="I22" s="6">
         <v>2</v>
       </c>
-      <c r="J22" s="3"/>
+      <c r="J22" s="6">
+        <v>2</v>
+      </c>
       <c r="K22" s="3"/>
-      <c r="L22" s="6" t="s">
+      <c r="L22" s="3"/>
+      <c r="M22" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="M22" s="6"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="4" t="s">
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -2816,8 +2919,10 @@
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
-    </row>
-    <row r="23" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+    </row>
+    <row r="23" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="3" t="s">
         <v>149</v>
@@ -2843,18 +2948,20 @@
       <c r="I23" s="6">
         <v>4</v>
       </c>
-      <c r="J23" s="3"/>
+      <c r="J23" s="6">
+        <v>4</v>
+      </c>
       <c r="K23" s="3"/>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="3"/>
+      <c r="M23" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="M23" s="6"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="4" t="s">
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -2871,8 +2978,10 @@
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
-    </row>
-    <row r="24" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+    </row>
+    <row r="24" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="3" t="s">
         <v>251</v>
@@ -2898,16 +3007,18 @@
       <c r="I24" s="12">
         <v>0</v>
       </c>
-      <c r="J24" s="3"/>
+      <c r="J24" s="12">
+        <v>0</v>
+      </c>
       <c r="K24" s="3"/>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="3"/>
+      <c r="M24" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="8"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -2924,8 +3035,10 @@
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
-    </row>
-    <row r="25" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+    </row>
+    <row r="25" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="15" t="s">
         <v>73</v>
       </c>
@@ -2953,18 +3066,20 @@
       <c r="I25" s="6">
         <v>2</v>
       </c>
-      <c r="J25" s="3"/>
+      <c r="J25" s="6">
+        <v>2</v>
+      </c>
       <c r="K25" s="3"/>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="3"/>
+      <c r="M25" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="M25" s="6"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="4" t="s">
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -2981,8 +3096,10 @@
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
-    </row>
-    <row r="26" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+    </row>
+    <row r="26" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="3" t="s">
         <v>74</v>
@@ -3008,18 +3125,20 @@
       <c r="I26" s="3">
         <v>1</v>
       </c>
-      <c r="J26" s="3"/>
+      <c r="J26" s="3">
+        <v>1</v>
+      </c>
       <c r="K26" s="3"/>
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="3"/>
+      <c r="M26" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="4" t="s">
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
@@ -3036,8 +3155,10 @@
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
-    </row>
-    <row r="27" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+    </row>
+    <row r="27" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="3" t="s">
         <v>114</v>
@@ -3063,18 +3184,20 @@
       <c r="I27" s="6">
         <v>1</v>
       </c>
-      <c r="J27" s="3"/>
+      <c r="J27" s="6">
+        <v>1</v>
+      </c>
       <c r="K27" s="3"/>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="3"/>
+      <c r="M27" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="4" t="s">
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -3091,8 +3214,10 @@
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
-    </row>
-    <row r="28" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+    </row>
+    <row r="28" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A28" s="15" t="s">
         <v>202</v>
       </c>
@@ -3120,16 +3245,18 @@
       <c r="I28" s="12">
         <v>0</v>
       </c>
-      <c r="J28" s="3"/>
+      <c r="J28" s="12">
+        <v>0</v>
+      </c>
       <c r="K28" s="3"/>
-      <c r="L28" s="3" t="s">
+      <c r="L28" s="3"/>
+      <c r="M28" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="8"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -3146,8 +3273,10 @@
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
-    </row>
-    <row r="29" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+    </row>
+    <row r="29" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="3" t="s">
         <v>254</v>
@@ -3173,16 +3302,18 @@
       <c r="I29" s="12">
         <v>0</v>
       </c>
-      <c r="J29" s="3"/>
+      <c r="J29" s="12">
+        <v>0</v>
+      </c>
       <c r="K29" s="3"/>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="3"/>
+      <c r="M29" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="8"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -3199,8 +3330,10 @@
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
-    </row>
-    <row r="30" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+    </row>
+    <row r="30" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="3" t="s">
         <v>70</v>
@@ -3223,21 +3356,25 @@
       <c r="H30" s="3">
         <v>1</v>
       </c>
-      <c r="I30" s="3">
-        <v>1</v>
-      </c>
-      <c r="J30" s="3"/>
+      <c r="I30" s="12">
+        <v>0</v>
+      </c>
+      <c r="J30" s="12">
+        <v>0</v>
+      </c>
       <c r="K30" s="3"/>
-      <c r="L30" s="3" t="s">
+      <c r="L30" s="3"/>
+      <c r="M30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="4" t="s">
+      <c r="O30" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
@@ -3254,8 +3391,10 @@
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
-    </row>
-    <row r="31" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+    </row>
+    <row r="31" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
         <v>164</v>
       </c>
@@ -3283,18 +3422,20 @@
       <c r="I31" s="6">
         <v>1</v>
       </c>
-      <c r="J31" s="3"/>
+      <c r="J31" s="6">
+        <v>1</v>
+      </c>
       <c r="K31" s="3"/>
-      <c r="L31" s="3" t="s">
+      <c r="L31" s="3"/>
+      <c r="M31" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="4" t="s">
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -3311,8 +3452,10 @@
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
-    </row>
-    <row r="32" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+    </row>
+    <row r="32" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="17"/>
       <c r="B32" s="3" t="s">
         <v>167</v>
@@ -3338,18 +3481,20 @@
       <c r="I32" s="3">
         <v>1</v>
       </c>
-      <c r="J32" s="3"/>
+      <c r="J32" s="3">
+        <v>1</v>
+      </c>
       <c r="K32" s="3"/>
-      <c r="L32" s="6" t="s">
+      <c r="L32" s="3"/>
+      <c r="M32" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="M32" s="6"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="4" t="s">
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -3366,8 +3511,10 @@
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
-    </row>
-    <row r="33" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+    </row>
+    <row r="33" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="17"/>
       <c r="B33" s="3" t="s">
         <v>169</v>
@@ -3393,18 +3540,20 @@
       <c r="I33" s="6">
         <v>1</v>
       </c>
-      <c r="J33" s="3"/>
+      <c r="J33" s="6">
+        <v>1</v>
+      </c>
       <c r="K33" s="3"/>
-      <c r="L33" s="6" t="s">
+      <c r="L33" s="3"/>
+      <c r="M33" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="M33" s="6"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="4" t="s">
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
@@ -3421,8 +3570,10 @@
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
-    </row>
-    <row r="34" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+    </row>
+    <row r="34" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A34" s="17"/>
       <c r="B34" s="3" t="s">
         <v>171</v>
@@ -3448,20 +3599,22 @@
       <c r="I34" s="14">
         <v>0</v>
       </c>
-      <c r="J34" s="3"/>
+      <c r="J34" s="14">
+        <v>0</v>
+      </c>
       <c r="K34" s="3"/>
-      <c r="L34" s="6" t="s">
+      <c r="L34" s="3"/>
+      <c r="M34" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="M34" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="N34" s="3"/>
-      <c r="O34" s="4" t="s">
+      <c r="N34" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="O34" s="6"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
@@ -3478,8 +3631,10 @@
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
-    </row>
-    <row r="35" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+    </row>
+    <row r="35" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A35" s="17"/>
       <c r="B35" s="3" t="s">
         <v>256</v>
@@ -3505,18 +3660,20 @@
       <c r="I35" s="13">
         <v>2</v>
       </c>
-      <c r="J35" s="3"/>
+      <c r="J35" s="13">
+        <v>2</v>
+      </c>
       <c r="K35" s="3"/>
-      <c r="L35" s="3" t="s">
+      <c r="L35" s="3"/>
+      <c r="M35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="4" t="s">
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -3533,8 +3690,10 @@
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
       <c r="AG35" s="1"/>
-    </row>
-    <row r="36" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+    </row>
+    <row r="36" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="17"/>
       <c r="B36" s="3" t="s">
         <v>257</v>
@@ -3560,16 +3719,18 @@
       <c r="I36" s="12">
         <v>0</v>
       </c>
-      <c r="J36" s="3"/>
+      <c r="J36" s="12">
+        <v>0</v>
+      </c>
       <c r="K36" s="3"/>
-      <c r="L36" s="3" t="s">
+      <c r="L36" s="3"/>
+      <c r="M36" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="8"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
@@ -3586,8 +3747,10 @@
       <c r="AE36" s="1"/>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
-    </row>
-    <row r="37" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+    </row>
+    <row r="37" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="17"/>
       <c r="B37" s="3" t="s">
         <v>259</v>
@@ -3613,16 +3776,18 @@
       <c r="I37" s="12">
         <v>0</v>
       </c>
-      <c r="J37" s="3"/>
+      <c r="J37" s="12">
+        <v>0</v>
+      </c>
       <c r="K37" s="3"/>
-      <c r="L37" s="3" t="s">
+      <c r="L37" s="3"/>
+      <c r="M37" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M37" s="3"/>
       <c r="N37" s="3"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="8"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
@@ -3639,8 +3804,10 @@
       <c r="AE37" s="1"/>
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
-    </row>
-    <row r="38" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+    </row>
+    <row r="38" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="17"/>
       <c r="B38" s="3" t="s">
         <v>261</v>
@@ -3666,16 +3833,18 @@
       <c r="I38" s="12">
         <v>0</v>
       </c>
-      <c r="J38" s="3"/>
+      <c r="J38" s="12">
+        <v>0</v>
+      </c>
       <c r="K38" s="3"/>
-      <c r="L38" s="3" t="s">
+      <c r="L38" s="3"/>
+      <c r="M38" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M38" s="3"/>
       <c r="N38" s="3"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="8"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
@@ -3692,8 +3861,10 @@
       <c r="AE38" s="1"/>
       <c r="AF38" s="1"/>
       <c r="AG38" s="1"/>
-    </row>
-    <row r="39" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+    </row>
+    <row r="39" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="3" t="s">
         <v>263</v>
@@ -3719,16 +3890,18 @@
       <c r="I39" s="12">
         <v>0</v>
       </c>
-      <c r="J39" s="3"/>
+      <c r="J39" s="12">
+        <v>0</v>
+      </c>
       <c r="K39" s="3"/>
-      <c r="L39" s="3" t="s">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="8"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
@@ -3745,8 +3918,10 @@
       <c r="AE39" s="1"/>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
-    </row>
-    <row r="40" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+    </row>
+    <row r="40" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A40" s="17"/>
       <c r="B40" s="3" t="s">
         <v>265</v>
@@ -3772,16 +3947,18 @@
       <c r="I40" s="12">
         <v>0</v>
       </c>
-      <c r="J40" s="3"/>
+      <c r="J40" s="12">
+        <v>0</v>
+      </c>
       <c r="K40" s="3"/>
-      <c r="L40" s="3" t="s">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="8"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -3798,8 +3975,10 @@
       <c r="AE40" s="1"/>
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
-    </row>
-    <row r="41" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
+    </row>
+    <row r="41" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A41" s="17"/>
       <c r="B41" s="3" t="s">
         <v>267</v>
@@ -3825,16 +4004,18 @@
       <c r="I41" s="12">
         <v>0</v>
       </c>
-      <c r="J41" s="3"/>
+      <c r="J41" s="12">
+        <v>0</v>
+      </c>
       <c r="K41" s="3"/>
-      <c r="L41" s="3" t="s">
+      <c r="L41" s="3"/>
+      <c r="M41" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M41" s="3"/>
       <c r="N41" s="3"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="8"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
@@ -3851,8 +4032,10 @@
       <c r="AE41" s="1"/>
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
-    </row>
-    <row r="42" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+    </row>
+    <row r="42" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="17"/>
       <c r="B42" s="3" t="s">
         <v>14</v>
@@ -3878,18 +4061,20 @@
       <c r="I42" s="3">
         <v>1</v>
       </c>
-      <c r="J42" s="3"/>
+      <c r="J42" s="3">
+        <v>1</v>
+      </c>
       <c r="K42" s="3"/>
-      <c r="L42" s="3" t="s">
+      <c r="L42" s="3"/>
+      <c r="M42" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M42" s="3"/>
       <c r="N42" s="3"/>
-      <c r="O42" s="4" t="s">
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
@@ -3906,8 +4091,10 @@
       <c r="AE42" s="1"/>
       <c r="AF42" s="1"/>
       <c r="AG42" s="1"/>
-    </row>
-    <row r="43" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+    </row>
+    <row r="43" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="17"/>
       <c r="B43" s="3" t="s">
         <v>129</v>
@@ -3933,18 +4120,20 @@
       <c r="I43" s="3">
         <v>1</v>
       </c>
-      <c r="J43" s="3"/>
+      <c r="J43" s="3">
+        <v>1</v>
+      </c>
       <c r="K43" s="3"/>
-      <c r="L43" s="3" t="s">
+      <c r="L43" s="3"/>
+      <c r="M43" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="M43" s="3"/>
       <c r="N43" s="3"/>
-      <c r="O43" s="4" t="s">
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
@@ -3961,8 +4150,10 @@
       <c r="AE43" s="1"/>
       <c r="AF43" s="1"/>
       <c r="AG43" s="1"/>
-    </row>
-    <row r="44" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+    </row>
+    <row r="44" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="17"/>
       <c r="B44" s="3" t="s">
         <v>269</v>
@@ -3988,16 +4179,18 @@
       <c r="I44" s="12">
         <v>0</v>
       </c>
-      <c r="J44" s="3"/>
+      <c r="J44" s="12">
+        <v>0</v>
+      </c>
       <c r="K44" s="3"/>
-      <c r="L44" s="3" t="s">
+      <c r="L44" s="3"/>
+      <c r="M44" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M44" s="3"/>
       <c r="N44" s="3"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="8"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
@@ -4014,8 +4207,10 @@
       <c r="AE44" s="1"/>
       <c r="AF44" s="1"/>
       <c r="AG44" s="1"/>
-    </row>
-    <row r="45" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+    </row>
+    <row r="45" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="17"/>
       <c r="B45" s="3" t="s">
         <v>131</v>
@@ -4041,20 +4236,22 @@
       <c r="I45" s="3">
         <v>1</v>
       </c>
-      <c r="J45" s="3"/>
+      <c r="J45" s="3">
+        <v>1</v>
+      </c>
       <c r="K45" s="3"/>
-      <c r="L45" s="3" t="s">
+      <c r="L45" s="3"/>
+      <c r="M45" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="N45" s="3"/>
-      <c r="O45" s="4" t="s">
+      <c r="N45" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
@@ -4071,8 +4268,10 @@
       <c r="AE45" s="1"/>
       <c r="AF45" s="1"/>
       <c r="AG45" s="1"/>
-    </row>
-    <row r="46" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+    </row>
+    <row r="46" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="18"/>
       <c r="B46" s="3" t="s">
         <v>47</v>
@@ -4098,18 +4297,20 @@
       <c r="I46" s="13">
         <v>2</v>
       </c>
-      <c r="J46" s="3"/>
+      <c r="J46" s="13">
+        <v>2</v>
+      </c>
       <c r="K46" s="3"/>
-      <c r="L46" s="3" t="s">
+      <c r="L46" s="3"/>
+      <c r="M46" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M46" s="3"/>
       <c r="N46" s="3"/>
-      <c r="O46" s="4" t="s">
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
@@ -4126,8 +4327,10 @@
       <c r="AE46" s="1"/>
       <c r="AF46" s="1"/>
       <c r="AG46" s="1"/>
-    </row>
-    <row r="47" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+    </row>
+    <row r="47" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="15" t="s">
         <v>203</v>
       </c>
@@ -4155,18 +4358,20 @@
       <c r="I47" s="13">
         <v>0</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3" t="s">
+      <c r="L47" s="3"/>
+      <c r="M47" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M47" s="3"/>
       <c r="N47" s="3"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="8"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
@@ -4183,8 +4388,10 @@
       <c r="AE47" s="1"/>
       <c r="AF47" s="1"/>
       <c r="AG47" s="1"/>
-    </row>
-    <row r="48" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+    </row>
+    <row r="48" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A48" s="15"/>
       <c r="B48" s="3" t="s">
         <v>273</v>
@@ -4210,16 +4417,18 @@
       <c r="I48" s="12">
         <v>0</v>
       </c>
-      <c r="J48" s="3"/>
+      <c r="J48" s="12">
+        <v>0</v>
+      </c>
       <c r="K48" s="3"/>
-      <c r="L48" s="3" t="s">
+      <c r="L48" s="3"/>
+      <c r="M48" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M48" s="3"/>
       <c r="N48" s="3"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="8"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
@@ -4236,8 +4445,10 @@
       <c r="AE48" s="1"/>
       <c r="AF48" s="1"/>
       <c r="AG48" s="1"/>
-    </row>
-    <row r="49" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+    </row>
+    <row r="49" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="15"/>
       <c r="B49" s="3" t="s">
         <v>275</v>
@@ -4263,20 +4474,22 @@
       <c r="I49" s="13">
         <v>0</v>
       </c>
-      <c r="J49" s="3"/>
+      <c r="J49" s="13">
+        <v>0</v>
+      </c>
       <c r="K49" s="3"/>
-      <c r="L49" s="3" t="s">
+      <c r="L49" s="3"/>
+      <c r="M49" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="N49" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="N49" s="3"/>
-      <c r="O49" s="4" t="s">
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
@@ -4293,8 +4506,10 @@
       <c r="AE49" s="1"/>
       <c r="AF49" s="1"/>
       <c r="AG49" s="1"/>
-    </row>
-    <row r="50" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+    </row>
+    <row r="50" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="15"/>
       <c r="B50" s="3" t="s">
         <v>276</v>
@@ -4320,16 +4535,18 @@
       <c r="I50" s="12">
         <v>0</v>
       </c>
-      <c r="J50" s="3"/>
+      <c r="J50" s="12">
+        <v>0</v>
+      </c>
       <c r="K50" s="3"/>
-      <c r="L50" s="3" t="s">
+      <c r="L50" s="3"/>
+      <c r="M50" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M50" s="3"/>
       <c r="N50" s="3"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="8"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
@@ -4346,8 +4563,10 @@
       <c r="AE50" s="1"/>
       <c r="AF50" s="1"/>
       <c r="AG50" s="1"/>
-    </row>
-    <row r="51" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+    </row>
+    <row r="51" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="15"/>
       <c r="B51" s="3" t="s">
         <v>278</v>
@@ -4373,16 +4592,18 @@
       <c r="I51" s="12">
         <v>0</v>
       </c>
-      <c r="J51" s="3"/>
+      <c r="J51" s="12">
+        <v>0</v>
+      </c>
       <c r="K51" s="3"/>
-      <c r="L51" s="3" t="s">
+      <c r="L51" s="3"/>
+      <c r="M51" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M51" s="3"/>
       <c r="N51" s="3"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="8"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
@@ -4399,8 +4620,10 @@
       <c r="AE51" s="1"/>
       <c r="AF51" s="1"/>
       <c r="AG51" s="1"/>
-    </row>
-    <row r="52" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+    </row>
+    <row r="52" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="15"/>
       <c r="B52" s="3" t="s">
         <v>280</v>
@@ -4426,16 +4649,18 @@
       <c r="I52" s="12">
         <v>0</v>
       </c>
-      <c r="J52" s="3"/>
+      <c r="J52" s="12">
+        <v>0</v>
+      </c>
       <c r="K52" s="3"/>
-      <c r="L52" s="3" t="s">
+      <c r="L52" s="3"/>
+      <c r="M52" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M52" s="3"/>
       <c r="N52" s="3"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="8"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
@@ -4452,8 +4677,10 @@
       <c r="AE52" s="1"/>
       <c r="AF52" s="1"/>
       <c r="AG52" s="1"/>
-    </row>
-    <row r="53" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+    </row>
+    <row r="53" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="15"/>
       <c r="B53" s="3" t="s">
         <v>204</v>
@@ -4479,16 +4706,18 @@
       <c r="I53" s="12">
         <v>0</v>
       </c>
-      <c r="J53" s="3"/>
+      <c r="J53" s="12">
+        <v>0</v>
+      </c>
       <c r="K53" s="3"/>
-      <c r="L53" s="3" t="s">
+      <c r="L53" s="3"/>
+      <c r="M53" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M53" s="3"/>
       <c r="N53" s="3"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="8"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
@@ -4505,8 +4734,10 @@
       <c r="AE53" s="1"/>
       <c r="AF53" s="1"/>
       <c r="AG53" s="1"/>
-    </row>
-    <row r="54" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH53" s="1"/>
+      <c r="AI53" s="1"/>
+    </row>
+    <row r="54" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="15"/>
       <c r="B54" s="3" t="s">
         <v>206</v>
@@ -4532,16 +4763,18 @@
       <c r="I54" s="12">
         <v>0</v>
       </c>
-      <c r="J54" s="3"/>
+      <c r="J54" s="12">
+        <v>0</v>
+      </c>
       <c r="K54" s="3"/>
-      <c r="L54" s="3" t="s">
+      <c r="L54" s="3"/>
+      <c r="M54" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M54" s="3"/>
       <c r="N54" s="3"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="8"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
@@ -4558,8 +4791,10 @@
       <c r="AE54" s="1"/>
       <c r="AF54" s="1"/>
       <c r="AG54" s="1"/>
-    </row>
-    <row r="55" spans="1:33" ht="42" x14ac:dyDescent="0.15">
+      <c r="AH54" s="1"/>
+      <c r="AI54" s="1"/>
+    </row>
+    <row r="55" spans="1:35" ht="42" x14ac:dyDescent="0.15">
       <c r="A55" s="15"/>
       <c r="B55" s="3" t="s">
         <v>282</v>
@@ -4585,16 +4820,18 @@
       <c r="I55" s="12">
         <v>0</v>
       </c>
-      <c r="J55" s="3"/>
+      <c r="J55" s="12">
+        <v>0</v>
+      </c>
       <c r="K55" s="3"/>
-      <c r="L55" s="3" t="s">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="8"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
@@ -4611,8 +4848,10 @@
       <c r="AE55" s="1"/>
       <c r="AF55" s="1"/>
       <c r="AG55" s="1"/>
-    </row>
-    <row r="56" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH55" s="1"/>
+      <c r="AI55" s="1"/>
+    </row>
+    <row r="56" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="15"/>
       <c r="B56" s="3" t="s">
         <v>284</v>
@@ -4638,16 +4877,18 @@
       <c r="I56" s="12">
         <v>0</v>
       </c>
-      <c r="J56" s="3"/>
+      <c r="J56" s="12">
+        <v>0</v>
+      </c>
       <c r="K56" s="3"/>
-      <c r="L56" s="3" t="s">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="8"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
@@ -4664,8 +4905,10 @@
       <c r="AE56" s="1"/>
       <c r="AF56" s="1"/>
       <c r="AG56" s="1"/>
-    </row>
-    <row r="57" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH56" s="1"/>
+      <c r="AI56" s="1"/>
+    </row>
+    <row r="57" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="16" t="s">
         <v>208</v>
       </c>
@@ -4693,18 +4936,20 @@
       <c r="I57" s="13">
         <v>2</v>
       </c>
-      <c r="J57" s="3"/>
+      <c r="J57" s="13">
+        <v>2</v>
+      </c>
       <c r="K57" s="3"/>
-      <c r="L57" s="3" t="s">
+      <c r="L57" s="3"/>
+      <c r="M57" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M57" s="3"/>
       <c r="N57" s="3"/>
-      <c r="O57" s="4" t="s">
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
@@ -4721,8 +4966,10 @@
       <c r="AE57" s="1"/>
       <c r="AF57" s="1"/>
       <c r="AG57" s="1"/>
-    </row>
-    <row r="58" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH57" s="1"/>
+      <c r="AI57" s="1"/>
+    </row>
+    <row r="58" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A58" s="17"/>
       <c r="B58" s="3" t="s">
         <v>65</v>
@@ -4748,18 +4995,20 @@
       <c r="I58" s="13">
         <v>3</v>
       </c>
-      <c r="J58" s="3"/>
+      <c r="J58" s="13">
+        <v>3</v>
+      </c>
       <c r="K58" s="3"/>
-      <c r="L58" s="3" t="s">
+      <c r="L58" s="3"/>
+      <c r="M58" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="M58" s="3"/>
       <c r="N58" s="3"/>
-      <c r="O58" s="4" t="s">
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
@@ -4776,8 +5025,10 @@
       <c r="AE58" s="1"/>
       <c r="AF58" s="1"/>
       <c r="AG58" s="1"/>
-    </row>
-    <row r="59" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH58" s="1"/>
+      <c r="AI58" s="1"/>
+    </row>
+    <row r="59" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A59" s="17"/>
       <c r="B59" s="3" t="s">
         <v>66</v>
@@ -4803,18 +5054,20 @@
       <c r="I59" s="3">
         <v>1</v>
       </c>
-      <c r="J59" s="3"/>
+      <c r="J59" s="3">
+        <v>1</v>
+      </c>
       <c r="K59" s="3"/>
-      <c r="L59" s="3" t="s">
+      <c r="L59" s="3"/>
+      <c r="M59" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="M59" s="3"/>
       <c r="N59" s="3"/>
-      <c r="O59" s="4" t="s">
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
@@ -4831,8 +5084,10 @@
       <c r="AE59" s="1"/>
       <c r="AF59" s="1"/>
       <c r="AG59" s="1"/>
-    </row>
-    <row r="60" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH59" s="1"/>
+      <c r="AI59" s="1"/>
+    </row>
+    <row r="60" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A60" s="17"/>
       <c r="B60" s="3" t="s">
         <v>286</v>
@@ -4858,16 +5113,18 @@
       <c r="I60" s="12">
         <v>0</v>
       </c>
-      <c r="J60" s="3"/>
+      <c r="J60" s="12">
+        <v>0</v>
+      </c>
       <c r="K60" s="3"/>
-      <c r="L60" s="3" t="s">
+      <c r="L60" s="3"/>
+      <c r="M60" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="M60" s="3"/>
       <c r="N60" s="3"/>
-      <c r="O60" s="8"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="8"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
@@ -4884,8 +5141,10 @@
       <c r="AE60" s="1"/>
       <c r="AF60" s="1"/>
       <c r="AG60" s="1"/>
-    </row>
-    <row r="61" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH60" s="1"/>
+      <c r="AI60" s="1"/>
+    </row>
+    <row r="61" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A61" s="17"/>
       <c r="B61" s="3" t="s">
         <v>288</v>
@@ -4911,16 +5170,18 @@
       <c r="I61" s="12">
         <v>0</v>
       </c>
-      <c r="J61" s="3"/>
+      <c r="J61" s="12">
+        <v>0</v>
+      </c>
       <c r="K61" s="3"/>
-      <c r="L61" s="6" t="s">
+      <c r="L61" s="3"/>
+      <c r="M61" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="M61" s="6"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="8"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="8"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
@@ -4937,8 +5198,10 @@
       <c r="AE61" s="1"/>
       <c r="AF61" s="1"/>
       <c r="AG61" s="1"/>
-    </row>
-    <row r="62" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH61" s="1"/>
+      <c r="AI61" s="1"/>
+    </row>
+    <row r="62" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A62" s="17"/>
       <c r="B62" s="3" t="s">
         <v>290</v>
@@ -4964,16 +5227,18 @@
       <c r="I62" s="12">
         <v>0</v>
       </c>
-      <c r="J62" s="3"/>
+      <c r="J62" s="12">
+        <v>0</v>
+      </c>
       <c r="K62" s="3"/>
-      <c r="L62" s="6" t="s">
+      <c r="L62" s="3"/>
+      <c r="M62" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="M62" s="6"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="8"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="8"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
@@ -4990,8 +5255,10 @@
       <c r="AE62" s="1"/>
       <c r="AF62" s="1"/>
       <c r="AG62" s="1"/>
-    </row>
-    <row r="63" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH62" s="1"/>
+      <c r="AI62" s="1"/>
+    </row>
+    <row r="63" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A63" s="17"/>
       <c r="B63" s="3" t="s">
         <v>292</v>
@@ -5017,16 +5284,18 @@
       <c r="I63" s="12">
         <v>0</v>
       </c>
-      <c r="J63" s="3"/>
+      <c r="J63" s="12">
+        <v>0</v>
+      </c>
       <c r="K63" s="3"/>
-      <c r="L63" s="6" t="s">
+      <c r="L63" s="3"/>
+      <c r="M63" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="M63" s="6"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="8"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="8"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
@@ -5043,8 +5312,10 @@
       <c r="AE63" s="1"/>
       <c r="AF63" s="1"/>
       <c r="AG63" s="1"/>
-    </row>
-    <row r="64" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH63" s="1"/>
+      <c r="AI63" s="1"/>
+    </row>
+    <row r="64" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A64" s="17"/>
       <c r="B64" s="3" t="s">
         <v>210</v>
@@ -5070,16 +5341,18 @@
       <c r="I64" s="12">
         <v>0</v>
       </c>
-      <c r="J64" s="3"/>
+      <c r="J64" s="12">
+        <v>0</v>
+      </c>
       <c r="K64" s="3"/>
-      <c r="L64" s="6" t="s">
+      <c r="L64" s="3"/>
+      <c r="M64" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="M64" s="6"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="8"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="8"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
@@ -5096,8 +5369,10 @@
       <c r="AE64" s="1"/>
       <c r="AF64" s="1"/>
       <c r="AG64" s="1"/>
-    </row>
-    <row r="65" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH64" s="1"/>
+      <c r="AI64" s="1"/>
+    </row>
+    <row r="65" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A65" s="17"/>
       <c r="B65" s="3" t="s">
         <v>294</v>
@@ -5123,16 +5398,18 @@
       <c r="I65" s="12">
         <v>0</v>
       </c>
-      <c r="J65" s="3"/>
+      <c r="J65" s="12">
+        <v>0</v>
+      </c>
       <c r="K65" s="3"/>
-      <c r="L65" s="6" t="s">
+      <c r="L65" s="3"/>
+      <c r="M65" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="M65" s="6"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="8"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
@@ -5149,8 +5426,10 @@
       <c r="AE65" s="1"/>
       <c r="AF65" s="1"/>
       <c r="AG65" s="1"/>
-    </row>
-    <row r="66" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH65" s="1"/>
+      <c r="AI65" s="1"/>
+    </row>
+    <row r="66" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A66" s="17"/>
       <c r="B66" s="3" t="s">
         <v>296</v>
@@ -5176,18 +5455,20 @@
       <c r="I66" s="3">
         <v>1</v>
       </c>
-      <c r="J66" s="3"/>
+      <c r="J66" s="3">
+        <v>1</v>
+      </c>
       <c r="K66" s="3"/>
-      <c r="L66" s="3" t="s">
+      <c r="L66" s="3"/>
+      <c r="M66" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M66" s="3"/>
       <c r="N66" s="3"/>
-      <c r="O66" s="4" t="s">
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
@@ -5204,8 +5485,10 @@
       <c r="AE66" s="1"/>
       <c r="AF66" s="1"/>
       <c r="AG66" s="1"/>
-    </row>
-    <row r="67" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH66" s="1"/>
+      <c r="AI66" s="1"/>
+    </row>
+    <row r="67" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="17"/>
       <c r="B67" s="3" t="s">
         <v>10</v>
@@ -5231,18 +5514,20 @@
       <c r="I67" s="13">
         <v>17</v>
       </c>
-      <c r="J67" s="3"/>
+      <c r="J67" s="13">
+        <v>17</v>
+      </c>
       <c r="K67" s="3"/>
-      <c r="L67" s="3" t="s">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-      <c r="O67" s="4" t="s">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
@@ -5259,8 +5544,10 @@
       <c r="AE67" s="1"/>
       <c r="AF67" s="1"/>
       <c r="AG67" s="1"/>
-    </row>
-    <row r="68" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH67" s="1"/>
+      <c r="AI67" s="1"/>
+    </row>
+    <row r="68" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A68" s="17"/>
       <c r="B68" s="3" t="s">
         <v>45</v>
@@ -5286,18 +5573,20 @@
       <c r="I68" s="13">
         <v>4</v>
       </c>
-      <c r="J68" s="3"/>
+      <c r="J68" s="13">
+        <v>4</v>
+      </c>
       <c r="K68" s="3"/>
-      <c r="L68" s="3" t="s">
+      <c r="L68" s="3"/>
+      <c r="M68" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M68" s="3"/>
       <c r="N68" s="3"/>
-      <c r="O68" s="4" t="s">
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
@@ -5314,8 +5603,10 @@
       <c r="AE68" s="1"/>
       <c r="AF68" s="1"/>
       <c r="AG68" s="1"/>
-    </row>
-    <row r="69" spans="1:33" ht="42" x14ac:dyDescent="0.15">
+      <c r="AH68" s="1"/>
+      <c r="AI68" s="1"/>
+    </row>
+    <row r="69" spans="1:35" ht="42" x14ac:dyDescent="0.15">
       <c r="A69" s="17"/>
       <c r="B69" s="3" t="s">
         <v>297</v>
@@ -5341,18 +5632,20 @@
       <c r="I69" s="13">
         <v>2</v>
       </c>
-      <c r="J69" s="3"/>
+      <c r="J69" s="13">
+        <v>2</v>
+      </c>
       <c r="K69" s="3"/>
-      <c r="L69" s="6" t="s">
+      <c r="L69" s="3"/>
+      <c r="M69" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M69" s="6"/>
-      <c r="N69" s="3"/>
-      <c r="O69" s="4" t="s">
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
@@ -5369,8 +5662,10 @@
       <c r="AE69" s="1"/>
       <c r="AF69" s="1"/>
       <c r="AG69" s="1"/>
-    </row>
-    <row r="70" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH69" s="1"/>
+      <c r="AI69" s="1"/>
+    </row>
+    <row r="70" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A70" s="17"/>
       <c r="B70" s="3" t="s">
         <v>299</v>
@@ -5396,16 +5691,18 @@
       <c r="I70" s="12">
         <v>0</v>
       </c>
-      <c r="J70" s="3"/>
+      <c r="J70" s="12">
+        <v>0</v>
+      </c>
       <c r="K70" s="3"/>
-      <c r="L70" s="3" t="s">
+      <c r="L70" s="3"/>
+      <c r="M70" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M70" s="3"/>
       <c r="N70" s="3"/>
-      <c r="O70" s="8"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="8"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
@@ -5422,8 +5719,10 @@
       <c r="AE70" s="1"/>
       <c r="AF70" s="1"/>
       <c r="AG70" s="1"/>
-    </row>
-    <row r="71" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH70" s="1"/>
+      <c r="AI70" s="1"/>
+    </row>
+    <row r="71" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A71" s="17"/>
       <c r="B71" s="3" t="s">
         <v>19</v>
@@ -5449,18 +5748,20 @@
       <c r="I71" s="3">
         <v>1</v>
       </c>
-      <c r="J71" s="3"/>
+      <c r="J71" s="3">
+        <v>1</v>
+      </c>
       <c r="K71" s="3"/>
-      <c r="L71" s="6" t="s">
+      <c r="L71" s="3"/>
+      <c r="M71" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M71" s="6"/>
-      <c r="N71" s="3"/>
-      <c r="O71" s="4" t="s">
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
@@ -5477,8 +5778,10 @@
       <c r="AE71" s="1"/>
       <c r="AF71" s="1"/>
       <c r="AG71" s="1"/>
-    </row>
-    <row r="72" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH71" s="1"/>
+      <c r="AI71" s="1"/>
+    </row>
+    <row r="72" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A72" s="17"/>
       <c r="B72" s="3" t="s">
         <v>300</v>
@@ -5504,16 +5807,18 @@
       <c r="I72" s="12">
         <v>0</v>
       </c>
-      <c r="J72" s="3"/>
+      <c r="J72" s="12">
+        <v>0</v>
+      </c>
       <c r="K72" s="3"/>
-      <c r="L72" s="3" t="s">
+      <c r="L72" s="3"/>
+      <c r="M72" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M72" s="3"/>
       <c r="N72" s="3"/>
-      <c r="O72" s="8"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="8"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
@@ -5530,8 +5835,10 @@
       <c r="AE72" s="1"/>
       <c r="AF72" s="1"/>
       <c r="AG72" s="1"/>
-    </row>
-    <row r="73" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH72" s="1"/>
+      <c r="AI72" s="1"/>
+    </row>
+    <row r="73" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A73" s="17"/>
       <c r="B73" s="3" t="s">
         <v>302</v>
@@ -5557,16 +5864,18 @@
       <c r="I73" s="12">
         <v>0</v>
       </c>
-      <c r="J73" s="3"/>
+      <c r="J73" s="12">
+        <v>0</v>
+      </c>
       <c r="K73" s="3"/>
-      <c r="L73" s="3" t="s">
+      <c r="L73" s="3"/>
+      <c r="M73" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M73" s="3"/>
       <c r="N73" s="3"/>
-      <c r="O73" s="8"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="8"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
@@ -5583,8 +5892,10 @@
       <c r="AE73" s="1"/>
       <c r="AF73" s="1"/>
       <c r="AG73" s="1"/>
-    </row>
-    <row r="74" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH73" s="1"/>
+      <c r="AI73" s="1"/>
+    </row>
+    <row r="74" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A74" s="17"/>
       <c r="B74" s="3" t="s">
         <v>304</v>
@@ -5610,16 +5921,18 @@
       <c r="I74" s="12">
         <v>0</v>
       </c>
-      <c r="J74" s="3"/>
+      <c r="J74" s="12">
+        <v>0</v>
+      </c>
       <c r="K74" s="3"/>
-      <c r="L74" s="3" t="s">
+      <c r="L74" s="3"/>
+      <c r="M74" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M74" s="3"/>
       <c r="N74" s="3"/>
-      <c r="O74" s="8"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="8"/>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
@@ -5636,8 +5949,10 @@
       <c r="AE74" s="1"/>
       <c r="AF74" s="1"/>
       <c r="AG74" s="1"/>
-    </row>
-    <row r="75" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH74" s="1"/>
+      <c r="AI74" s="1"/>
+    </row>
+    <row r="75" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A75" s="17"/>
       <c r="B75" s="3" t="s">
         <v>306</v>
@@ -5663,16 +5978,18 @@
       <c r="I75" s="12">
         <v>0</v>
       </c>
-      <c r="J75" s="3"/>
+      <c r="J75" s="12">
+        <v>0</v>
+      </c>
       <c r="K75" s="3"/>
-      <c r="L75" s="3" t="s">
+      <c r="L75" s="3"/>
+      <c r="M75" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M75" s="3"/>
       <c r="N75" s="3"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="8"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
@@ -5689,8 +6006,10 @@
       <c r="AE75" s="1"/>
       <c r="AF75" s="1"/>
       <c r="AG75" s="1"/>
-    </row>
-    <row r="76" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH75" s="1"/>
+      <c r="AI75" s="1"/>
+    </row>
+    <row r="76" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A76" s="17"/>
       <c r="B76" s="3" t="s">
         <v>308</v>
@@ -5716,16 +6035,18 @@
       <c r="I76" s="12">
         <v>0</v>
       </c>
-      <c r="J76" s="3"/>
+      <c r="J76" s="12">
+        <v>0</v>
+      </c>
       <c r="K76" s="3"/>
-      <c r="L76" s="3" t="s">
+      <c r="L76" s="3"/>
+      <c r="M76" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M76" s="3"/>
       <c r="N76" s="3"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="8"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
@@ -5742,8 +6063,10 @@
       <c r="AE76" s="1"/>
       <c r="AF76" s="1"/>
       <c r="AG76" s="1"/>
-    </row>
-    <row r="77" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH76" s="1"/>
+      <c r="AI76" s="1"/>
+    </row>
+    <row r="77" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A77" s="18"/>
       <c r="B77" s="3" t="s">
         <v>44</v>
@@ -5769,18 +6092,20 @@
       <c r="I77" s="13">
         <v>1</v>
       </c>
-      <c r="J77" s="3"/>
+      <c r="J77" s="13">
+        <v>1</v>
+      </c>
       <c r="K77" s="3"/>
-      <c r="L77" s="3" t="s">
+      <c r="L77" s="3"/>
+      <c r="M77" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M77" s="3"/>
       <c r="N77" s="3"/>
-      <c r="O77" s="4" t="s">
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
@@ -5797,8 +6122,10 @@
       <c r="AE77" s="1"/>
       <c r="AF77" s="1"/>
       <c r="AG77" s="1"/>
-    </row>
-    <row r="78" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH77" s="1"/>
+      <c r="AI77" s="1"/>
+    </row>
+    <row r="78" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A78" s="15" t="s">
         <v>212</v>
       </c>
@@ -5826,18 +6153,20 @@
       <c r="I78" s="3">
         <v>1</v>
       </c>
-      <c r="J78" s="3"/>
+      <c r="J78" s="3">
+        <v>1</v>
+      </c>
       <c r="K78" s="3"/>
-      <c r="L78" s="6" t="s">
+      <c r="L78" s="3"/>
+      <c r="M78" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M78" s="6"/>
-      <c r="N78" s="3"/>
-      <c r="O78" s="4" t="s">
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
@@ -5854,8 +6183,10 @@
       <c r="AE78" s="1"/>
       <c r="AF78" s="1"/>
       <c r="AG78" s="1"/>
-    </row>
-    <row r="79" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH78" s="1"/>
+      <c r="AI78" s="1"/>
+    </row>
+    <row r="79" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A79" s="15"/>
       <c r="B79" s="3" t="s">
         <v>42</v>
@@ -5881,18 +6212,20 @@
       <c r="I79" s="13">
         <v>2</v>
       </c>
-      <c r="J79" s="3"/>
+      <c r="J79" s="13">
+        <v>2</v>
+      </c>
       <c r="K79" s="3"/>
-      <c r="L79" s="3" t="s">
+      <c r="L79" s="3"/>
+      <c r="M79" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M79" s="3"/>
       <c r="N79" s="3"/>
-      <c r="O79" s="4" t="s">
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
@@ -5909,8 +6242,10 @@
       <c r="AE79" s="1"/>
       <c r="AF79" s="1"/>
       <c r="AG79" s="1"/>
-    </row>
-    <row r="80" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH79" s="1"/>
+      <c r="AI79" s="1"/>
+    </row>
+    <row r="80" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A80" s="15"/>
       <c r="B80" s="3" t="s">
         <v>311</v>
@@ -5936,16 +6271,18 @@
       <c r="I80" s="12">
         <v>0</v>
       </c>
-      <c r="J80" s="3"/>
+      <c r="J80" s="12">
+        <v>0</v>
+      </c>
       <c r="K80" s="3"/>
-      <c r="L80" s="3" t="s">
+      <c r="L80" s="3"/>
+      <c r="M80" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M80" s="3"/>
       <c r="N80" s="3"/>
-      <c r="O80" s="8"/>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="8"/>
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
@@ -5962,8 +6299,10 @@
       <c r="AE80" s="1"/>
       <c r="AF80" s="1"/>
       <c r="AG80" s="1"/>
-    </row>
-    <row r="81" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH80" s="1"/>
+      <c r="AI80" s="1"/>
+    </row>
+    <row r="81" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A81" s="15"/>
       <c r="B81" s="3" t="s">
         <v>313</v>
@@ -5989,16 +6328,18 @@
       <c r="I81" s="12">
         <v>0</v>
       </c>
-      <c r="J81" s="3"/>
+      <c r="J81" s="12">
+        <v>0</v>
+      </c>
       <c r="K81" s="3"/>
-      <c r="L81" s="3" t="s">
+      <c r="L81" s="3"/>
+      <c r="M81" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M81" s="3"/>
       <c r="N81" s="3"/>
-      <c r="O81" s="8"/>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="8"/>
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
@@ -6015,8 +6356,10 @@
       <c r="AE81" s="1"/>
       <c r="AF81" s="1"/>
       <c r="AG81" s="1"/>
-    </row>
-    <row r="82" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH81" s="1"/>
+      <c r="AI81" s="1"/>
+    </row>
+    <row r="82" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A82" s="15"/>
       <c r="B82" s="3" t="s">
         <v>315</v>
@@ -6042,16 +6385,18 @@
       <c r="I82" s="12">
         <v>0</v>
       </c>
-      <c r="J82" s="3"/>
+      <c r="J82" s="12">
+        <v>0</v>
+      </c>
       <c r="K82" s="3"/>
-      <c r="L82" s="3" t="s">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-      <c r="O82" s="8"/>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="8"/>
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
@@ -6068,8 +6413,10 @@
       <c r="AE82" s="1"/>
       <c r="AF82" s="1"/>
       <c r="AG82" s="1"/>
-    </row>
-    <row r="83" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH82" s="1"/>
+      <c r="AI82" s="1"/>
+    </row>
+    <row r="83" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A83" s="15"/>
       <c r="B83" s="3" t="s">
         <v>317</v>
@@ -6095,18 +6442,20 @@
       <c r="I83" s="3">
         <v>1</v>
       </c>
-      <c r="J83" s="3"/>
+      <c r="J83" s="3">
+        <v>1</v>
+      </c>
       <c r="K83" s="3"/>
-      <c r="L83" s="6" t="s">
+      <c r="L83" s="3"/>
+      <c r="M83" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M83" s="6"/>
-      <c r="N83" s="3"/>
-      <c r="O83" s="4" t="s">
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P83" s="1"/>
-      <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
@@ -6123,8 +6472,10 @@
       <c r="AE83" s="1"/>
       <c r="AF83" s="1"/>
       <c r="AG83" s="1"/>
-    </row>
-    <row r="84" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH83" s="1"/>
+      <c r="AI83" s="1"/>
+    </row>
+    <row r="84" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A84" s="15"/>
       <c r="B84" s="3" t="s">
         <v>318</v>
@@ -6150,16 +6501,18 @@
       <c r="I84" s="12">
         <v>0</v>
       </c>
-      <c r="J84" s="3"/>
+      <c r="J84" s="12">
+        <v>0</v>
+      </c>
       <c r="K84" s="3"/>
-      <c r="L84" s="3" t="s">
+      <c r="L84" s="3"/>
+      <c r="M84" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M84" s="3"/>
       <c r="N84" s="3"/>
-      <c r="O84" s="8"/>
-      <c r="P84" s="1"/>
-      <c r="Q84" s="1"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="8"/>
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
@@ -6176,8 +6529,10 @@
       <c r="AE84" s="1"/>
       <c r="AF84" s="1"/>
       <c r="AG84" s="1"/>
-    </row>
-    <row r="85" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH84" s="1"/>
+      <c r="AI84" s="1"/>
+    </row>
+    <row r="85" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A85" s="15"/>
       <c r="B85" s="3" t="s">
         <v>320</v>
@@ -6203,18 +6558,20 @@
       <c r="I85" s="3">
         <v>1</v>
       </c>
-      <c r="J85" s="3"/>
+      <c r="J85" s="3">
+        <v>1</v>
+      </c>
       <c r="K85" s="3"/>
-      <c r="L85" s="6" t="s">
+      <c r="L85" s="3"/>
+      <c r="M85" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="M85" s="6"/>
-      <c r="N85" s="3"/>
-      <c r="O85" s="4" t="s">
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="P85" s="1"/>
-      <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
@@ -6231,8 +6588,10 @@
       <c r="AE85" s="1"/>
       <c r="AF85" s="1"/>
       <c r="AG85" s="1"/>
-    </row>
-    <row r="86" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH85" s="1"/>
+      <c r="AI85" s="1"/>
+    </row>
+    <row r="86" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A86" s="15"/>
       <c r="B86" s="6" t="s">
         <v>46</v>
@@ -6258,18 +6617,20 @@
       <c r="I86" s="13">
         <v>18</v>
       </c>
-      <c r="J86" s="3"/>
+      <c r="J86" s="13">
+        <v>18</v>
+      </c>
       <c r="K86" s="3"/>
-      <c r="L86" s="6" t="s">
+      <c r="L86" s="3"/>
+      <c r="M86" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M86" s="6"/>
-      <c r="N86" s="3"/>
-      <c r="O86" s="4" t="s">
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P86" s="1"/>
-      <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
@@ -6286,8 +6647,10 @@
       <c r="AE86" s="1"/>
       <c r="AF86" s="1"/>
       <c r="AG86" s="1"/>
-    </row>
-    <row r="87" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH86" s="1"/>
+      <c r="AI86" s="1"/>
+    </row>
+    <row r="87" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A87" s="15"/>
       <c r="B87" s="3" t="s">
         <v>321</v>
@@ -6313,18 +6676,20 @@
       <c r="I87" s="13">
         <v>2</v>
       </c>
-      <c r="J87" s="3"/>
+      <c r="J87" s="13">
+        <v>2</v>
+      </c>
       <c r="K87" s="3"/>
-      <c r="L87" s="3" t="s">
+      <c r="L87" s="3"/>
+      <c r="M87" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="M87" s="3"/>
       <c r="N87" s="3"/>
-      <c r="O87" s="4" t="s">
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="P87" s="1"/>
-      <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
@@ -6341,8 +6706,10 @@
       <c r="AE87" s="1"/>
       <c r="AF87" s="1"/>
       <c r="AG87" s="1"/>
-    </row>
-    <row r="88" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH87" s="1"/>
+      <c r="AI87" s="1"/>
+    </row>
+    <row r="88" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A88" s="15" t="s">
         <v>213</v>
       </c>
@@ -6370,16 +6737,18 @@
       <c r="I88" s="12">
         <v>0</v>
       </c>
-      <c r="J88" s="3"/>
+      <c r="J88" s="12">
+        <v>0</v>
+      </c>
       <c r="K88" s="3"/>
-      <c r="L88" s="3" t="s">
+      <c r="L88" s="3"/>
+      <c r="M88" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M88" s="3"/>
       <c r="N88" s="3"/>
-      <c r="O88" s="8"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="8"/>
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
@@ -6396,8 +6765,10 @@
       <c r="AE88" s="1"/>
       <c r="AF88" s="1"/>
       <c r="AG88" s="1"/>
-    </row>
-    <row r="89" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH88" s="1"/>
+      <c r="AI88" s="1"/>
+    </row>
+    <row r="89" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A89" s="15"/>
       <c r="B89" s="3" t="s">
         <v>324</v>
@@ -6423,16 +6794,18 @@
       <c r="I89" s="12">
         <v>0</v>
       </c>
-      <c r="J89" s="3"/>
+      <c r="J89" s="12">
+        <v>0</v>
+      </c>
       <c r="K89" s="3"/>
-      <c r="L89" s="3" t="s">
+      <c r="L89" s="3"/>
+      <c r="M89" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M89" s="3"/>
       <c r="N89" s="3"/>
-      <c r="O89" s="8"/>
-      <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="8"/>
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
@@ -6449,8 +6822,10 @@
       <c r="AE89" s="1"/>
       <c r="AF89" s="1"/>
       <c r="AG89" s="1"/>
-    </row>
-    <row r="90" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH89" s="1"/>
+      <c r="AI89" s="1"/>
+    </row>
+    <row r="90" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A90" s="15"/>
       <c r="B90" s="3" t="s">
         <v>326</v>
@@ -6476,16 +6851,18 @@
       <c r="I90" s="12">
         <v>0</v>
       </c>
-      <c r="J90" s="3"/>
+      <c r="J90" s="12">
+        <v>0</v>
+      </c>
       <c r="K90" s="3"/>
-      <c r="L90" s="3" t="s">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-      <c r="O90" s="8"/>
-      <c r="P90" s="1"/>
-      <c r="Q90" s="1"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="8"/>
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
@@ -6502,8 +6879,10 @@
       <c r="AE90" s="1"/>
       <c r="AF90" s="1"/>
       <c r="AG90" s="1"/>
-    </row>
-    <row r="91" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH90" s="1"/>
+      <c r="AI90" s="1"/>
+    </row>
+    <row r="91" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A91" s="19" t="s">
         <v>83</v>
       </c>
@@ -6531,18 +6910,20 @@
       <c r="I91" s="14">
         <v>2</v>
       </c>
-      <c r="J91" s="4"/>
+      <c r="J91" s="14">
+        <v>2</v>
+      </c>
       <c r="K91" s="4"/>
-      <c r="L91" s="6" t="s">
+      <c r="L91" s="4"/>
+      <c r="M91" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="M91" s="6"/>
-      <c r="N91" s="3"/>
-      <c r="O91" s="4" t="s">
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="P91" s="1"/>
-      <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
@@ -6556,8 +6937,10 @@
       <c r="AB91" s="1"/>
       <c r="AC91" s="1"/>
       <c r="AD91" s="1"/>
-    </row>
-    <row r="92" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AE91" s="1"/>
+      <c r="AF91" s="1"/>
+    </row>
+    <row r="92" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A92" s="19"/>
       <c r="B92" s="3" t="s">
         <v>86</v>
@@ -6583,18 +6966,20 @@
       <c r="I92" s="13">
         <v>1</v>
       </c>
-      <c r="J92" s="4"/>
+      <c r="J92" s="13">
+        <v>1</v>
+      </c>
       <c r="K92" s="4"/>
-      <c r="L92" s="6" t="s">
+      <c r="L92" s="4"/>
+      <c r="M92" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="M92" s="6"/>
-      <c r="N92" s="3"/>
-      <c r="O92" s="4" t="s">
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="P92" s="1"/>
-      <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
@@ -6608,8 +6993,10 @@
       <c r="AB92" s="1"/>
       <c r="AC92" s="1"/>
       <c r="AD92" s="1"/>
-    </row>
-    <row r="93" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AE92" s="1"/>
+      <c r="AF92" s="1"/>
+    </row>
+    <row r="93" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A93" s="19"/>
       <c r="B93" s="3" t="s">
         <v>94</v>
@@ -6635,18 +7022,20 @@
       <c r="I93" s="13">
         <v>1</v>
       </c>
-      <c r="J93" s="4"/>
+      <c r="J93" s="13">
+        <v>1</v>
+      </c>
       <c r="K93" s="4"/>
-      <c r="L93" s="6" t="s">
+      <c r="L93" s="4"/>
+      <c r="M93" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="M93" s="6"/>
-      <c r="N93" s="3"/>
-      <c r="O93" s="4" t="s">
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="P93" s="1"/>
-      <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
@@ -6659,8 +7048,10 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
       <c r="AC93" s="1"/>
-    </row>
-    <row r="94" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AD93" s="1"/>
+      <c r="AE93" s="1"/>
+    </row>
+    <row r="94" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A94" s="19"/>
       <c r="B94" s="3" t="s">
         <v>97</v>
@@ -6686,18 +7077,20 @@
       <c r="I94" s="13">
         <v>1</v>
       </c>
-      <c r="J94" s="4"/>
+      <c r="J94" s="13">
+        <v>1</v>
+      </c>
       <c r="K94" s="4"/>
-      <c r="L94" s="6" t="s">
+      <c r="L94" s="4"/>
+      <c r="M94" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="M94" s="6"/>
-      <c r="N94" s="3"/>
-      <c r="O94" s="4" t="s">
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="P94" s="1"/>
-      <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
@@ -6711,8 +7104,10 @@
       <c r="AB94" s="1"/>
       <c r="AC94" s="1"/>
       <c r="AD94" s="1"/>
-    </row>
-    <row r="95" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AE94" s="1"/>
+      <c r="AF94" s="1"/>
+    </row>
+    <row r="95" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A95" s="19"/>
       <c r="B95" s="3" t="s">
         <v>161</v>
@@ -6738,18 +7133,20 @@
       <c r="I95" s="13">
         <v>1</v>
       </c>
-      <c r="J95" s="4"/>
+      <c r="J95" s="13">
+        <v>1</v>
+      </c>
       <c r="K95" s="4"/>
-      <c r="L95" s="3" t="s">
+      <c r="L95" s="4"/>
+      <c r="M95" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-      <c r="O95" s="4" t="s">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="P95" s="1"/>
-      <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
@@ -6763,8 +7160,10 @@
       <c r="AB95" s="1"/>
       <c r="AC95" s="1"/>
       <c r="AD95" s="1"/>
-    </row>
-    <row r="96" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AE95" s="1"/>
+      <c r="AF95" s="1"/>
+    </row>
+    <row r="96" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A96" s="19" t="s">
         <v>100</v>
       </c>
@@ -6792,18 +7191,20 @@
       <c r="I96" s="14">
         <v>1</v>
       </c>
-      <c r="J96" s="4"/>
+      <c r="J96" s="14">
+        <v>1</v>
+      </c>
       <c r="K96" s="4"/>
-      <c r="L96" s="6" t="s">
+      <c r="L96" s="4"/>
+      <c r="M96" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="M96" s="6"/>
-      <c r="N96" s="3"/>
-      <c r="O96" s="4" t="s">
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="P96" s="1"/>
-      <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
@@ -6817,8 +7218,10 @@
       <c r="AB96" s="1"/>
       <c r="AC96" s="1"/>
       <c r="AD96" s="1"/>
-    </row>
-    <row r="97" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AE96" s="1"/>
+      <c r="AF96" s="1"/>
+    </row>
+    <row r="97" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A97" s="19"/>
       <c r="B97" s="6" t="s">
         <v>117</v>
@@ -6844,18 +7247,20 @@
       <c r="I97" s="13">
         <v>1</v>
       </c>
-      <c r="J97" s="4"/>
+      <c r="J97" s="13">
+        <v>1</v>
+      </c>
       <c r="K97" s="4"/>
-      <c r="L97" s="3" t="s">
+      <c r="L97" s="4"/>
+      <c r="M97" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="M97" s="3"/>
       <c r="N97" s="3"/>
-      <c r="O97" s="4" t="s">
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="P97" s="1"/>
-      <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
@@ -6869,8 +7274,10 @@
       <c r="AB97" s="1"/>
       <c r="AC97" s="1"/>
       <c r="AD97" s="1"/>
-    </row>
-    <row r="98" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AE97" s="1"/>
+      <c r="AF97" s="1"/>
+    </row>
+    <row r="98" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A98" s="19" t="s">
         <v>156</v>
       </c>
@@ -6898,18 +7305,20 @@
       <c r="I98" s="14">
         <v>1</v>
       </c>
-      <c r="J98" s="4"/>
+      <c r="J98" s="14">
+        <v>1</v>
+      </c>
       <c r="K98" s="4"/>
-      <c r="L98" s="3" t="s">
+      <c r="L98" s="4"/>
+      <c r="M98" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="M98" s="3"/>
       <c r="N98" s="3"/>
-      <c r="O98" s="4" t="s">
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="P98" s="1"/>
-      <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
@@ -6923,8 +7332,10 @@
       <c r="AB98" s="1"/>
       <c r="AC98" s="1"/>
       <c r="AD98" s="1"/>
-    </row>
-    <row r="99" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AE98" s="1"/>
+      <c r="AF98" s="1"/>
+    </row>
+    <row r="99" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A99" s="19"/>
       <c r="B99" s="6" t="s">
         <v>158</v>
@@ -6950,18 +7361,20 @@
       <c r="I99" s="14">
         <v>6</v>
       </c>
-      <c r="J99" s="4"/>
+      <c r="J99" s="14">
+        <v>6</v>
+      </c>
       <c r="K99" s="4"/>
-      <c r="L99" s="6" t="s">
+      <c r="L99" s="4"/>
+      <c r="M99" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="M99" s="6"/>
-      <c r="N99" s="3"/>
-      <c r="O99" s="4" t="s">
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="P99" s="1"/>
-      <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
@@ -6975,8 +7388,10 @@
       <c r="AB99" s="1"/>
       <c r="AC99" s="1"/>
       <c r="AD99" s="1"/>
-    </row>
-    <row r="100" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AE99" s="1"/>
+      <c r="AF99" s="1"/>
+    </row>
+    <row r="100" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A100" s="15" t="s">
         <v>55</v>
       </c>
@@ -7004,16 +7419,18 @@
       <c r="I100" s="12">
         <v>0</v>
       </c>
-      <c r="J100" s="3"/>
+      <c r="J100" s="12">
+        <v>0</v>
+      </c>
       <c r="K100" s="3"/>
-      <c r="L100" s="3" t="s">
+      <c r="L100" s="3"/>
+      <c r="M100" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M100" s="3"/>
       <c r="N100" s="3"/>
-      <c r="O100" s="8"/>
-      <c r="P100" s="1"/>
-      <c r="Q100" s="1"/>
+      <c r="O100" s="3"/>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="8"/>
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
@@ -7030,8 +7447,10 @@
       <c r="AE100" s="1"/>
       <c r="AF100" s="1"/>
       <c r="AG100" s="1"/>
-    </row>
-    <row r="101" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH100" s="1"/>
+      <c r="AI100" s="1"/>
+    </row>
+    <row r="101" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A101" s="15"/>
       <c r="B101" s="3" t="s">
         <v>330</v>
@@ -7057,18 +7476,20 @@
       <c r="I101" s="13">
         <v>2</v>
       </c>
-      <c r="J101" s="3"/>
+      <c r="J101" s="13">
+        <v>2</v>
+      </c>
       <c r="K101" s="3"/>
-      <c r="L101" s="6" t="s">
+      <c r="L101" s="3"/>
+      <c r="M101" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M101" s="6"/>
-      <c r="N101" s="3"/>
-      <c r="O101" s="4" t="s">
+      <c r="N101" s="6"/>
+      <c r="O101" s="6"/>
+      <c r="P101" s="3"/>
+      <c r="Q101" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P101" s="1"/>
-      <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
@@ -7085,8 +7506,10 @@
       <c r="AE101" s="1"/>
       <c r="AF101" s="1"/>
       <c r="AG101" s="1"/>
-    </row>
-    <row r="102" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH101" s="1"/>
+      <c r="AI101" s="1"/>
+    </row>
+    <row r="102" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A102" s="15"/>
       <c r="B102" s="3" t="s">
         <v>332</v>
@@ -7112,16 +7535,18 @@
       <c r="I102" s="12">
         <v>0</v>
       </c>
-      <c r="J102" s="3"/>
+      <c r="J102" s="12">
+        <v>0</v>
+      </c>
       <c r="K102" s="3"/>
-      <c r="L102" s="3" t="s">
+      <c r="L102" s="3"/>
+      <c r="M102" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M102" s="3"/>
       <c r="N102" s="3"/>
-      <c r="O102" s="8"/>
-      <c r="P102" s="1"/>
-      <c r="Q102" s="1"/>
+      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
+      <c r="Q102" s="8"/>
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
@@ -7138,8 +7563,10 @@
       <c r="AE102" s="1"/>
       <c r="AF102" s="1"/>
       <c r="AG102" s="1"/>
-    </row>
-    <row r="103" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH102" s="1"/>
+      <c r="AI102" s="1"/>
+    </row>
+    <row r="103" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A103" s="15"/>
       <c r="B103" s="3" t="s">
         <v>109</v>
@@ -7165,20 +7592,22 @@
       <c r="I103" s="14">
         <v>5</v>
       </c>
-      <c r="J103" s="3"/>
+      <c r="J103" s="14">
+        <v>5</v>
+      </c>
       <c r="K103" s="3"/>
-      <c r="L103" s="3" t="s">
+      <c r="L103" s="3"/>
+      <c r="M103" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="M103" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="N103" s="3"/>
-      <c r="O103" s="4" t="s">
+      <c r="N103" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="O103" s="3"/>
+      <c r="P103" s="3"/>
+      <c r="Q103" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="P103" s="1"/>
-      <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
@@ -7195,8 +7624,10 @@
       <c r="AE103" s="1"/>
       <c r="AF103" s="1"/>
       <c r="AG103" s="1"/>
-    </row>
-    <row r="104" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH103" s="1"/>
+      <c r="AI103" s="1"/>
+    </row>
+    <row r="104" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A104" s="15"/>
       <c r="B104" s="3" t="s">
         <v>334</v>
@@ -7222,16 +7653,18 @@
       <c r="I104" s="12">
         <v>0</v>
       </c>
-      <c r="J104" s="3"/>
+      <c r="J104" s="12">
+        <v>0</v>
+      </c>
       <c r="K104" s="3"/>
-      <c r="L104" s="3" t="s">
+      <c r="L104" s="3"/>
+      <c r="M104" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M104" s="3"/>
       <c r="N104" s="3"/>
-      <c r="O104" s="8"/>
-      <c r="P104" s="1"/>
-      <c r="Q104" s="1"/>
+      <c r="O104" s="3"/>
+      <c r="P104" s="3"/>
+      <c r="Q104" s="8"/>
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
@@ -7248,8 +7681,10 @@
       <c r="AE104" s="1"/>
       <c r="AF104" s="1"/>
       <c r="AG104" s="1"/>
-    </row>
-    <row r="105" spans="1:33" ht="42" x14ac:dyDescent="0.15">
+      <c r="AH104" s="1"/>
+      <c r="AI104" s="1"/>
+    </row>
+    <row r="105" spans="1:35" ht="42" x14ac:dyDescent="0.15">
       <c r="A105" s="15"/>
       <c r="B105" s="3" t="s">
         <v>183</v>
@@ -7275,18 +7710,20 @@
       <c r="I105" s="6">
         <v>1</v>
       </c>
-      <c r="J105" s="3"/>
+      <c r="J105" s="6">
+        <v>1</v>
+      </c>
       <c r="K105" s="3"/>
-      <c r="L105" s="6" t="s">
+      <c r="L105" s="3"/>
+      <c r="M105" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="M105" s="6"/>
-      <c r="N105" s="3"/>
-      <c r="O105" s="4" t="s">
+      <c r="N105" s="6"/>
+      <c r="O105" s="6"/>
+      <c r="P105" s="3"/>
+      <c r="Q105" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="P105" s="1"/>
-      <c r="Q105" s="1"/>
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
@@ -7303,8 +7740,10 @@
       <c r="AE105" s="1"/>
       <c r="AF105" s="1"/>
       <c r="AG105" s="1"/>
-    </row>
-    <row r="106" spans="1:33" ht="42" x14ac:dyDescent="0.15">
+      <c r="AH105" s="1"/>
+      <c r="AI105" s="1"/>
+    </row>
+    <row r="106" spans="1:35" ht="42" x14ac:dyDescent="0.15">
       <c r="A106" s="15"/>
       <c r="B106" s="3" t="s">
         <v>185</v>
@@ -7328,24 +7767,28 @@
         <v>12</v>
       </c>
       <c r="I106" s="14">
-        <v>12</v>
-      </c>
-      <c r="J106" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J106" s="14">
+        <v>11</v>
+      </c>
+      <c r="K106" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="K106" s="3"/>
-      <c r="L106" s="6" t="s">
+      <c r="L106" s="3"/>
+      <c r="M106" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="M106" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="N106" s="3"/>
-      <c r="O106" s="4" t="s">
+      <c r="N106" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="O106" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="P106" s="3"/>
+      <c r="Q106" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="P106" s="1"/>
-      <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
@@ -7362,8 +7805,10 @@
       <c r="AE106" s="1"/>
       <c r="AF106" s="1"/>
       <c r="AG106" s="1"/>
-    </row>
-    <row r="107" spans="1:33" ht="42" x14ac:dyDescent="0.15">
+      <c r="AH106" s="1"/>
+      <c r="AI106" s="1"/>
+    </row>
+    <row r="107" spans="1:35" ht="42" x14ac:dyDescent="0.15">
       <c r="A107" s="15"/>
       <c r="B107" s="3" t="s">
         <v>187</v>
@@ -7387,20 +7832,24 @@
         <v>4</v>
       </c>
       <c r="I107" s="14">
-        <v>4</v>
-      </c>
-      <c r="J107" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="J107" s="14">
+        <v>3</v>
+      </c>
       <c r="K107" s="3"/>
-      <c r="L107" s="6" t="s">
+      <c r="L107" s="3"/>
+      <c r="M107" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="M107" s="6"/>
-      <c r="N107" s="3"/>
-      <c r="O107" s="4" t="s">
+      <c r="N107" s="6"/>
+      <c r="O107" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="P107" s="3"/>
+      <c r="Q107" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="P107" s="1"/>
-      <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
@@ -7417,8 +7866,10 @@
       <c r="AE107" s="1"/>
       <c r="AF107" s="1"/>
       <c r="AG107" s="1"/>
-    </row>
-    <row r="108" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH107" s="1"/>
+      <c r="AI107" s="1"/>
+    </row>
+    <row r="108" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A108" s="15"/>
       <c r="B108" s="3" t="s">
         <v>336</v>
@@ -7444,18 +7895,20 @@
       <c r="I108" s="3">
         <v>0</v>
       </c>
-      <c r="J108" s="3"/>
+      <c r="J108" s="3">
+        <v>0</v>
+      </c>
       <c r="K108" s="3"/>
-      <c r="L108" s="3" t="s">
+      <c r="L108" s="3"/>
+      <c r="M108" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="M108" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="N108" s="3"/>
-      <c r="O108" s="8"/>
-      <c r="P108" s="1"/>
-      <c r="Q108" s="1"/>
+      <c r="N108" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="O108" s="3"/>
+      <c r="P108" s="3"/>
+      <c r="Q108" s="8"/>
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
@@ -7472,8 +7925,10 @@
       <c r="AE108" s="1"/>
       <c r="AF108" s="1"/>
       <c r="AG108" s="1"/>
-    </row>
-    <row r="109" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH108" s="1"/>
+      <c r="AI108" s="1"/>
+    </row>
+    <row r="109" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A109" s="15"/>
       <c r="B109" s="3" t="s">
         <v>57</v>
@@ -7499,18 +7954,20 @@
       <c r="I109" s="3">
         <v>1</v>
       </c>
-      <c r="J109" s="3"/>
+      <c r="J109" s="3">
+        <v>1</v>
+      </c>
       <c r="K109" s="3"/>
-      <c r="L109" s="3" t="s">
+      <c r="L109" s="3"/>
+      <c r="M109" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M109" s="3"/>
       <c r="N109" s="3"/>
-      <c r="O109" s="4" t="s">
+      <c r="O109" s="3"/>
+      <c r="P109" s="3"/>
+      <c r="Q109" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="P109" s="1"/>
-      <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
@@ -7527,8 +7984,10 @@
       <c r="AE109" s="1"/>
       <c r="AF109" s="1"/>
       <c r="AG109" s="1"/>
-    </row>
-    <row r="110" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH109" s="1"/>
+      <c r="AI109" s="1"/>
+    </row>
+    <row r="110" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A110" s="15"/>
       <c r="B110" s="3" t="s">
         <v>214</v>
@@ -7554,18 +8013,20 @@
       <c r="I110" s="13">
         <v>3</v>
       </c>
-      <c r="J110" s="3"/>
+      <c r="J110" s="13">
+        <v>3</v>
+      </c>
       <c r="K110" s="3"/>
-      <c r="L110" s="3" t="s">
+      <c r="L110" s="3"/>
+      <c r="M110" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M110" s="3"/>
       <c r="N110" s="3"/>
-      <c r="O110" s="4" t="s">
+      <c r="O110" s="3"/>
+      <c r="P110" s="3"/>
+      <c r="Q110" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="P110" s="1"/>
-      <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
@@ -7582,8 +8043,10 @@
       <c r="AE110" s="1"/>
       <c r="AF110" s="1"/>
       <c r="AG110" s="1"/>
-    </row>
-    <row r="111" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH110" s="1"/>
+      <c r="AI110" s="1"/>
+    </row>
+    <row r="111" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A111" s="15"/>
       <c r="B111" s="3" t="s">
         <v>178</v>
@@ -7609,18 +8072,20 @@
       <c r="I111" s="3">
         <v>1</v>
       </c>
-      <c r="J111" s="3"/>
+      <c r="J111" s="3">
+        <v>1</v>
+      </c>
       <c r="K111" s="3"/>
-      <c r="L111" s="3" t="s">
+      <c r="L111" s="3"/>
+      <c r="M111" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="M111" s="3"/>
       <c r="N111" s="3"/>
-      <c r="O111" s="4" t="s">
+      <c r="O111" s="3"/>
+      <c r="P111" s="3"/>
+      <c r="Q111" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="P111" s="1"/>
-      <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
@@ -7637,8 +8102,10 @@
       <c r="AE111" s="1"/>
       <c r="AF111" s="1"/>
       <c r="AG111" s="1"/>
-    </row>
-    <row r="112" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AH111" s="1"/>
+      <c r="AI111" s="1"/>
+    </row>
+    <row r="112" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A112" s="15"/>
       <c r="B112" s="3" t="s">
         <v>215</v>
@@ -7664,16 +8131,18 @@
       <c r="I112" s="13">
         <v>0</v>
       </c>
-      <c r="J112" s="3"/>
+      <c r="J112" s="13">
+        <v>0</v>
+      </c>
       <c r="K112" s="3"/>
-      <c r="L112" s="3" t="s">
+      <c r="L112" s="3"/>
+      <c r="M112" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="M112" s="3"/>
       <c r="N112" s="3"/>
-      <c r="O112" s="8"/>
-      <c r="P112" s="1"/>
-      <c r="Q112" s="1"/>
+      <c r="O112" s="3"/>
+      <c r="P112" s="3"/>
+      <c r="Q112" s="8"/>
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
@@ -7690,8 +8159,10 @@
       <c r="AE112" s="1"/>
       <c r="AF112" s="1"/>
       <c r="AG112" s="1"/>
-    </row>
-    <row r="113" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH112" s="1"/>
+      <c r="AI112" s="1"/>
+    </row>
+    <row r="113" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A113" s="15"/>
       <c r="B113" s="3" t="s">
         <v>217</v>
@@ -7717,16 +8188,18 @@
       <c r="I113" s="13">
         <v>0</v>
       </c>
-      <c r="J113" s="3"/>
+      <c r="J113" s="13">
+        <v>0</v>
+      </c>
       <c r="K113" s="3"/>
-      <c r="L113" s="3" t="s">
+      <c r="L113" s="3"/>
+      <c r="M113" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="M113" s="3"/>
       <c r="N113" s="3"/>
-      <c r="O113" s="8"/>
-      <c r="P113" s="1"/>
-      <c r="Q113" s="1"/>
+      <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
+      <c r="Q113" s="8"/>
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
@@ -7743,8 +8216,10 @@
       <c r="AE113" s="1"/>
       <c r="AF113" s="1"/>
       <c r="AG113" s="1"/>
-    </row>
-    <row r="114" spans="1:33" ht="42" x14ac:dyDescent="0.15">
+      <c r="AH113" s="1"/>
+      <c r="AI113" s="1"/>
+    </row>
+    <row r="114" spans="1:35" ht="42" x14ac:dyDescent="0.15">
       <c r="A114" s="15"/>
       <c r="B114" s="3" t="s">
         <v>219</v>
@@ -7770,18 +8245,20 @@
       <c r="I114" s="3">
         <v>1</v>
       </c>
-      <c r="J114" s="3"/>
+      <c r="J114" s="3">
+        <v>1</v>
+      </c>
       <c r="K114" s="3"/>
-      <c r="L114" s="3" t="s">
+      <c r="L114" s="3"/>
+      <c r="M114" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="M114" s="3"/>
       <c r="N114" s="3"/>
-      <c r="O114" s="4" t="s">
+      <c r="O114" s="3"/>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="P114" s="1"/>
-      <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
@@ -7798,8 +8275,10 @@
       <c r="AE114" s="1"/>
       <c r="AF114" s="1"/>
       <c r="AG114" s="1"/>
-    </row>
-    <row r="115" spans="1:33" ht="56" x14ac:dyDescent="0.15">
+      <c r="AH114" s="1"/>
+      <c r="AI114" s="1"/>
+    </row>
+    <row r="115" spans="1:35" ht="56" x14ac:dyDescent="0.15">
       <c r="A115" s="15"/>
       <c r="B115" s="3" t="s">
         <v>181</v>
@@ -7825,18 +8304,20 @@
       <c r="I115" s="13">
         <v>2</v>
       </c>
-      <c r="J115" s="3"/>
+      <c r="J115" s="13">
+        <v>2</v>
+      </c>
       <c r="K115" s="3"/>
-      <c r="L115" s="3" t="s">
+      <c r="L115" s="3"/>
+      <c r="M115" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="M115" s="3"/>
       <c r="N115" s="3"/>
-      <c r="O115" s="4" t="s">
+      <c r="O115" s="3"/>
+      <c r="P115" s="3"/>
+      <c r="Q115" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="P115" s="1"/>
-      <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
@@ -7853,8 +8334,10 @@
       <c r="AE115" s="1"/>
       <c r="AF115" s="1"/>
       <c r="AG115" s="1"/>
-    </row>
-    <row r="116" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AH115" s="1"/>
+      <c r="AI115" s="1"/>
+    </row>
+    <row r="116" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A116" s="15"/>
       <c r="B116" s="3" t="s">
         <v>80</v>
@@ -7880,18 +8363,20 @@
       <c r="I116" s="13">
         <v>2</v>
       </c>
-      <c r="J116" s="3"/>
+      <c r="J116" s="13">
+        <v>2</v>
+      </c>
       <c r="K116" s="3"/>
-      <c r="L116" s="3" t="s">
+      <c r="L116" s="3"/>
+      <c r="M116" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M116" s="3"/>
       <c r="N116" s="3"/>
-      <c r="O116" s="4" t="s">
+      <c r="O116" s="3"/>
+      <c r="P116" s="3"/>
+      <c r="Q116" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="P116" s="1"/>
-      <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
@@ -7904,8 +8389,10 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
       <c r="AC116" s="1"/>
-    </row>
-    <row r="117" spans="1:33" ht="28" x14ac:dyDescent="0.15">
+      <c r="AD116" s="1"/>
+      <c r="AE116" s="1"/>
+    </row>
+    <row r="117" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A117" s="15"/>
       <c r="B117" s="3" t="s">
         <v>60</v>
@@ -7931,18 +8418,20 @@
       <c r="I117" s="13">
         <v>2</v>
       </c>
-      <c r="J117" s="3"/>
+      <c r="J117" s="13">
+        <v>2</v>
+      </c>
       <c r="K117" s="3"/>
-      <c r="L117" s="3" t="s">
+      <c r="L117" s="3"/>
+      <c r="M117" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M117" s="3"/>
       <c r="N117" s="3"/>
-      <c r="O117" s="4" t="s">
+      <c r="O117" s="3"/>
+      <c r="P117" s="3"/>
+      <c r="Q117" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="P117" s="1"/>
-      <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
@@ -7956,8 +8445,10 @@
       <c r="AB117" s="1"/>
       <c r="AC117" s="1"/>
       <c r="AD117" s="1"/>
-    </row>
-    <row r="118" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AE117" s="1"/>
+      <c r="AF117" s="1"/>
+    </row>
+    <row r="118" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A118" s="15"/>
       <c r="B118" s="6" t="s">
         <v>124</v>
@@ -7983,18 +8474,20 @@
       <c r="I118" s="14">
         <v>2</v>
       </c>
-      <c r="J118" s="3"/>
+      <c r="J118" s="14">
+        <v>2</v>
+      </c>
       <c r="K118" s="3"/>
-      <c r="L118" s="3" t="s">
+      <c r="L118" s="3"/>
+      <c r="M118" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="M118" s="3"/>
       <c r="N118" s="3"/>
-      <c r="O118" s="4" t="s">
+      <c r="O118" s="3"/>
+      <c r="P118" s="3"/>
+      <c r="Q118" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="P118" s="1"/>
-      <c r="Q118" s="1"/>
       <c r="R118" s="1"/>
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
@@ -8008,8 +8501,10 @@
       <c r="AB118" s="1"/>
       <c r="AC118" s="1"/>
       <c r="AD118" s="1"/>
-    </row>
-    <row r="119" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AE118" s="1"/>
+      <c r="AF118" s="1"/>
+    </row>
+    <row r="119" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A119" s="15"/>
       <c r="B119" s="6" t="s">
         <v>127</v>
@@ -8035,18 +8530,20 @@
       <c r="I119" s="14">
         <v>4</v>
       </c>
-      <c r="J119" s="3"/>
+      <c r="J119" s="14">
+        <v>4</v>
+      </c>
       <c r="K119" s="3"/>
-      <c r="L119" s="3" t="s">
+      <c r="L119" s="3"/>
+      <c r="M119" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="M119" s="3"/>
       <c r="N119" s="3"/>
-      <c r="O119" s="4" t="s">
+      <c r="O119" s="3"/>
+      <c r="P119" s="3"/>
+      <c r="Q119" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="P119" s="1"/>
-      <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
@@ -8060,8 +8557,10 @@
       <c r="AB119" s="1"/>
       <c r="AC119" s="1"/>
       <c r="AD119" s="1"/>
-    </row>
-    <row r="120" spans="1:33" ht="14" x14ac:dyDescent="0.15">
+      <c r="AE119" s="1"/>
+      <c r="AF119" s="1"/>
+    </row>
+    <row r="120" spans="1:35" ht="14" x14ac:dyDescent="0.15">
       <c r="A120" s="15"/>
       <c r="B120" s="6" t="s">
         <v>139</v>
@@ -8087,20 +8586,22 @@
       <c r="I120" s="14">
         <v>0</v>
       </c>
-      <c r="J120" s="3"/>
+      <c r="J120" s="14">
+        <v>0</v>
+      </c>
       <c r="K120" s="3"/>
-      <c r="L120" s="3" t="s">
+      <c r="L120" s="3"/>
+      <c r="M120" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="M120" s="3" t="s">
+      <c r="N120" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="N120" s="3"/>
-      <c r="O120" s="4" t="s">
+      <c r="O120" s="3"/>
+      <c r="P120" s="3"/>
+      <c r="Q120" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="P120" s="1"/>
-      <c r="Q120" s="1"/>
       <c r="R120" s="1"/>
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
@@ -8114,8 +8615,10 @@
       <c r="AB120" s="1"/>
       <c r="AC120" s="1"/>
       <c r="AD120" s="1"/>
-    </row>
-    <row r="121" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE120" s="1"/>
+      <c r="AF120" s="1"/>
+    </row>
+    <row r="121" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -8130,9 +8633,9 @@
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
-      <c r="O121" s="2"/>
+      <c r="O121" s="1"/>
       <c r="P121" s="1"/>
-      <c r="Q121" s="1"/>
+      <c r="Q121" s="2"/>
       <c r="R121" s="1"/>
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
@@ -8149,8 +8652,10 @@
       <c r="AE121" s="1"/>
       <c r="AF121" s="1"/>
       <c r="AG121" s="1"/>
-    </row>
-    <row r="122" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH121" s="1"/>
+      <c r="AI121" s="1"/>
+    </row>
+    <row r="122" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -8165,9 +8670,9 @@
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
-      <c r="O122" s="2"/>
+      <c r="O122" s="1"/>
       <c r="P122" s="1"/>
-      <c r="Q122" s="1"/>
+      <c r="Q122" s="2"/>
       <c r="R122" s="1"/>
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
@@ -8184,8 +8689,10 @@
       <c r="AE122" s="1"/>
       <c r="AF122" s="1"/>
       <c r="AG122" s="1"/>
-    </row>
-    <row r="123" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH122" s="1"/>
+      <c r="AI122" s="1"/>
+    </row>
+    <row r="123" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -8200,9 +8707,9 @@
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
-      <c r="O123" s="2"/>
+      <c r="O123" s="1"/>
       <c r="P123" s="1"/>
-      <c r="Q123" s="1"/>
+      <c r="Q123" s="2"/>
       <c r="R123" s="1"/>
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
@@ -8219,8 +8726,10 @@
       <c r="AE123" s="1"/>
       <c r="AF123" s="1"/>
       <c r="AG123" s="1"/>
-    </row>
-    <row r="124" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH123" s="1"/>
+      <c r="AI123" s="1"/>
+    </row>
+    <row r="124" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -8235,9 +8744,9 @@
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
-      <c r="O124" s="2"/>
+      <c r="O124" s="1"/>
       <c r="P124" s="1"/>
-      <c r="Q124" s="1"/>
+      <c r="Q124" s="2"/>
       <c r="R124" s="1"/>
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
@@ -8254,8 +8763,10 @@
       <c r="AE124" s="1"/>
       <c r="AF124" s="1"/>
       <c r="AG124" s="1"/>
-    </row>
-    <row r="125" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH124" s="1"/>
+      <c r="AI124" s="1"/>
+    </row>
+    <row r="125" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -8270,9 +8781,9 @@
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
-      <c r="O125" s="2"/>
+      <c r="O125" s="1"/>
       <c r="P125" s="1"/>
-      <c r="Q125" s="1"/>
+      <c r="Q125" s="2"/>
       <c r="R125" s="1"/>
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
@@ -8289,8 +8800,10 @@
       <c r="AE125" s="1"/>
       <c r="AF125" s="1"/>
       <c r="AG125" s="1"/>
-    </row>
-    <row r="126" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH125" s="1"/>
+      <c r="AI125" s="1"/>
+    </row>
+    <row r="126" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -8305,9 +8818,9 @@
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
-      <c r="O126" s="2"/>
+      <c r="O126" s="1"/>
       <c r="P126" s="1"/>
-      <c r="Q126" s="1"/>
+      <c r="Q126" s="2"/>
       <c r="R126" s="1"/>
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
@@ -8324,8 +8837,10 @@
       <c r="AE126" s="1"/>
       <c r="AF126" s="1"/>
       <c r="AG126" s="1"/>
-    </row>
-    <row r="127" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH126" s="1"/>
+      <c r="AI126" s="1"/>
+    </row>
+    <row r="127" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -8340,9 +8855,9 @@
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
-      <c r="O127" s="2"/>
+      <c r="O127" s="1"/>
       <c r="P127" s="1"/>
-      <c r="Q127" s="1"/>
+      <c r="Q127" s="2"/>
       <c r="R127" s="1"/>
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
@@ -8359,8 +8874,10 @@
       <c r="AE127" s="1"/>
       <c r="AF127" s="1"/>
       <c r="AG127" s="1"/>
-    </row>
-    <row r="128" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH127" s="1"/>
+      <c r="AI127" s="1"/>
+    </row>
+    <row r="128" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -8375,9 +8892,9 @@
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
-      <c r="O128" s="2"/>
+      <c r="O128" s="1"/>
       <c r="P128" s="1"/>
-      <c r="Q128" s="1"/>
+      <c r="Q128" s="2"/>
       <c r="R128" s="1"/>
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
@@ -8394,8 +8911,10 @@
       <c r="AE128" s="1"/>
       <c r="AF128" s="1"/>
       <c r="AG128" s="1"/>
-    </row>
-    <row r="129" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH128" s="1"/>
+      <c r="AI128" s="1"/>
+    </row>
+    <row r="129" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -8410,9 +8929,9 @@
       <c r="L129" s="1"/>
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
-      <c r="O129" s="2"/>
+      <c r="O129" s="1"/>
       <c r="P129" s="1"/>
-      <c r="Q129" s="1"/>
+      <c r="Q129" s="2"/>
       <c r="R129" s="1"/>
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
@@ -8429,8 +8948,10 @@
       <c r="AE129" s="1"/>
       <c r="AF129" s="1"/>
       <c r="AG129" s="1"/>
-    </row>
-    <row r="130" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH129" s="1"/>
+      <c r="AI129" s="1"/>
+    </row>
+    <row r="130" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -8445,9 +8966,9 @@
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
-      <c r="O130" s="2"/>
+      <c r="O130" s="1"/>
       <c r="P130" s="1"/>
-      <c r="Q130" s="1"/>
+      <c r="Q130" s="2"/>
       <c r="R130" s="1"/>
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
@@ -8464,8 +8985,10 @@
       <c r="AE130" s="1"/>
       <c r="AF130" s="1"/>
       <c r="AG130" s="1"/>
-    </row>
-    <row r="131" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH130" s="1"/>
+      <c r="AI130" s="1"/>
+    </row>
+    <row r="131" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -8480,9 +9003,9 @@
       <c r="L131" s="1"/>
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
-      <c r="O131" s="2"/>
+      <c r="O131" s="1"/>
       <c r="P131" s="1"/>
-      <c r="Q131" s="1"/>
+      <c r="Q131" s="2"/>
       <c r="R131" s="1"/>
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
@@ -8499,8 +9022,10 @@
       <c r="AE131" s="1"/>
       <c r="AF131" s="1"/>
       <c r="AG131" s="1"/>
-    </row>
-    <row r="132" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH131" s="1"/>
+      <c r="AI131" s="1"/>
+    </row>
+    <row r="132" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -8515,9 +9040,9 @@
       <c r="L132" s="1"/>
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
-      <c r="O132" s="2"/>
+      <c r="O132" s="1"/>
       <c r="P132" s="1"/>
-      <c r="Q132" s="1"/>
+      <c r="Q132" s="2"/>
       <c r="R132" s="1"/>
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
@@ -8534,8 +9059,10 @@
       <c r="AE132" s="1"/>
       <c r="AF132" s="1"/>
       <c r="AG132" s="1"/>
-    </row>
-    <row r="133" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH132" s="1"/>
+      <c r="AI132" s="1"/>
+    </row>
+    <row r="133" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -8550,9 +9077,9 @@
       <c r="L133" s="1"/>
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
-      <c r="O133" s="2"/>
+      <c r="O133" s="1"/>
       <c r="P133" s="1"/>
-      <c r="Q133" s="1"/>
+      <c r="Q133" s="2"/>
       <c r="R133" s="1"/>
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
@@ -8569,8 +9096,10 @@
       <c r="AE133" s="1"/>
       <c r="AF133" s="1"/>
       <c r="AG133" s="1"/>
-    </row>
-    <row r="134" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH133" s="1"/>
+      <c r="AI133" s="1"/>
+    </row>
+    <row r="134" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -8585,9 +9114,9 @@
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
-      <c r="O134" s="2"/>
+      <c r="O134" s="1"/>
       <c r="P134" s="1"/>
-      <c r="Q134" s="1"/>
+      <c r="Q134" s="2"/>
       <c r="R134" s="1"/>
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
@@ -8604,8 +9133,10 @@
       <c r="AE134" s="1"/>
       <c r="AF134" s="1"/>
       <c r="AG134" s="1"/>
-    </row>
-    <row r="135" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH134" s="1"/>
+      <c r="AI134" s="1"/>
+    </row>
+    <row r="135" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -8620,9 +9151,9 @@
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
-      <c r="O135" s="2"/>
+      <c r="O135" s="1"/>
       <c r="P135" s="1"/>
-      <c r="Q135" s="1"/>
+      <c r="Q135" s="2"/>
       <c r="R135" s="1"/>
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
@@ -8639,8 +9170,10 @@
       <c r="AE135" s="1"/>
       <c r="AF135" s="1"/>
       <c r="AG135" s="1"/>
-    </row>
-    <row r="136" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH135" s="1"/>
+      <c r="AI135" s="1"/>
+    </row>
+    <row r="136" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -8655,9 +9188,9 @@
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
-      <c r="O136" s="2"/>
+      <c r="O136" s="1"/>
       <c r="P136" s="1"/>
-      <c r="Q136" s="1"/>
+      <c r="Q136" s="2"/>
       <c r="R136" s="1"/>
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
@@ -8674,8 +9207,10 @@
       <c r="AE136" s="1"/>
       <c r="AF136" s="1"/>
       <c r="AG136" s="1"/>
-    </row>
-    <row r="137" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH136" s="1"/>
+      <c r="AI136" s="1"/>
+    </row>
+    <row r="137" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -8690,9 +9225,9 @@
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
-      <c r="O137" s="2"/>
+      <c r="O137" s="1"/>
       <c r="P137" s="1"/>
-      <c r="Q137" s="1"/>
+      <c r="Q137" s="2"/>
       <c r="R137" s="1"/>
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
@@ -8709,8 +9244,10 @@
       <c r="AE137" s="1"/>
       <c r="AF137" s="1"/>
       <c r="AG137" s="1"/>
-    </row>
-    <row r="138" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH137" s="1"/>
+      <c r="AI137" s="1"/>
+    </row>
+    <row r="138" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -8725,9 +9262,9 @@
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
-      <c r="O138" s="2"/>
+      <c r="O138" s="1"/>
       <c r="P138" s="1"/>
-      <c r="Q138" s="1"/>
+      <c r="Q138" s="2"/>
       <c r="R138" s="1"/>
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
@@ -8744,8 +9281,10 @@
       <c r="AE138" s="1"/>
       <c r="AF138" s="1"/>
       <c r="AG138" s="1"/>
-    </row>
-    <row r="139" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH138" s="1"/>
+      <c r="AI138" s="1"/>
+    </row>
+    <row r="139" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -8760,9 +9299,9 @@
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
-      <c r="O139" s="2"/>
+      <c r="O139" s="1"/>
       <c r="P139" s="1"/>
-      <c r="Q139" s="1"/>
+      <c r="Q139" s="2"/>
       <c r="R139" s="1"/>
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
@@ -8779,8 +9318,10 @@
       <c r="AE139" s="1"/>
       <c r="AF139" s="1"/>
       <c r="AG139" s="1"/>
-    </row>
-    <row r="140" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH139" s="1"/>
+      <c r="AI139" s="1"/>
+    </row>
+    <row r="140" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -8795,9 +9336,9 @@
       <c r="L140" s="1"/>
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
-      <c r="O140" s="2"/>
+      <c r="O140" s="1"/>
       <c r="P140" s="1"/>
-      <c r="Q140" s="1"/>
+      <c r="Q140" s="2"/>
       <c r="R140" s="1"/>
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
@@ -8814,8 +9355,10 @@
       <c r="AE140" s="1"/>
       <c r="AF140" s="1"/>
       <c r="AG140" s="1"/>
-    </row>
-    <row r="141" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH140" s="1"/>
+      <c r="AI140" s="1"/>
+    </row>
+    <row r="141" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -8830,9 +9373,9 @@
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
-      <c r="O141" s="2"/>
+      <c r="O141" s="1"/>
       <c r="P141" s="1"/>
-      <c r="Q141" s="1"/>
+      <c r="Q141" s="2"/>
       <c r="R141" s="1"/>
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
@@ -8849,8 +9392,10 @@
       <c r="AE141" s="1"/>
       <c r="AF141" s="1"/>
       <c r="AG141" s="1"/>
-    </row>
-    <row r="142" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH141" s="1"/>
+      <c r="AI141" s="1"/>
+    </row>
+    <row r="142" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -8865,9 +9410,9 @@
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
-      <c r="O142" s="2"/>
+      <c r="O142" s="1"/>
       <c r="P142" s="1"/>
-      <c r="Q142" s="1"/>
+      <c r="Q142" s="2"/>
       <c r="R142" s="1"/>
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
@@ -8884,8 +9429,10 @@
       <c r="AE142" s="1"/>
       <c r="AF142" s="1"/>
       <c r="AG142" s="1"/>
-    </row>
-    <row r="143" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH142" s="1"/>
+      <c r="AI142" s="1"/>
+    </row>
+    <row r="143" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -8900,9 +9447,9 @@
       <c r="L143" s="1"/>
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
-      <c r="O143" s="2"/>
+      <c r="O143" s="1"/>
       <c r="P143" s="1"/>
-      <c r="Q143" s="1"/>
+      <c r="Q143" s="2"/>
       <c r="R143" s="1"/>
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
@@ -8919,8 +9466,10 @@
       <c r="AE143" s="1"/>
       <c r="AF143" s="1"/>
       <c r="AG143" s="1"/>
-    </row>
-    <row r="144" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH143" s="1"/>
+      <c r="AI143" s="1"/>
+    </row>
+    <row r="144" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -8935,9 +9484,9 @@
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
-      <c r="O144" s="2"/>
+      <c r="O144" s="1"/>
       <c r="P144" s="1"/>
-      <c r="Q144" s="1"/>
+      <c r="Q144" s="2"/>
       <c r="R144" s="1"/>
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
@@ -8954,8 +9503,10 @@
       <c r="AE144" s="1"/>
       <c r="AF144" s="1"/>
       <c r="AG144" s="1"/>
-    </row>
-    <row r="145" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH144" s="1"/>
+      <c r="AI144" s="1"/>
+    </row>
+    <row r="145" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -8970,9 +9521,9 @@
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
-      <c r="O145" s="2"/>
+      <c r="O145" s="1"/>
       <c r="P145" s="1"/>
-      <c r="Q145" s="1"/>
+      <c r="Q145" s="2"/>
       <c r="R145" s="1"/>
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
@@ -8989,8 +9540,10 @@
       <c r="AE145" s="1"/>
       <c r="AF145" s="1"/>
       <c r="AG145" s="1"/>
-    </row>
-    <row r="146" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH145" s="1"/>
+      <c r="AI145" s="1"/>
+    </row>
+    <row r="146" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -9005,9 +9558,9 @@
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
-      <c r="O146" s="2"/>
+      <c r="O146" s="1"/>
       <c r="P146" s="1"/>
-      <c r="Q146" s="1"/>
+      <c r="Q146" s="2"/>
       <c r="R146" s="1"/>
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
@@ -9024,8 +9577,10 @@
       <c r="AE146" s="1"/>
       <c r="AF146" s="1"/>
       <c r="AG146" s="1"/>
-    </row>
-    <row r="147" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH146" s="1"/>
+      <c r="AI146" s="1"/>
+    </row>
+    <row r="147" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -9040,9 +9595,9 @@
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
-      <c r="O147" s="2"/>
+      <c r="O147" s="1"/>
       <c r="P147" s="1"/>
-      <c r="Q147" s="1"/>
+      <c r="Q147" s="2"/>
       <c r="R147" s="1"/>
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
@@ -9059,8 +9614,10 @@
       <c r="AE147" s="1"/>
       <c r="AF147" s="1"/>
       <c r="AG147" s="1"/>
-    </row>
-    <row r="148" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH147" s="1"/>
+      <c r="AI147" s="1"/>
+    </row>
+    <row r="148" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -9075,9 +9632,9 @@
       <c r="L148" s="1"/>
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
-      <c r="O148" s="2"/>
+      <c r="O148" s="1"/>
       <c r="P148" s="1"/>
-      <c r="Q148" s="1"/>
+      <c r="Q148" s="2"/>
       <c r="R148" s="1"/>
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
@@ -9094,8 +9651,10 @@
       <c r="AE148" s="1"/>
       <c r="AF148" s="1"/>
       <c r="AG148" s="1"/>
-    </row>
-    <row r="149" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH148" s="1"/>
+      <c r="AI148" s="1"/>
+    </row>
+    <row r="149" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -9110,9 +9669,9 @@
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
-      <c r="O149" s="2"/>
+      <c r="O149" s="1"/>
       <c r="P149" s="1"/>
-      <c r="Q149" s="1"/>
+      <c r="Q149" s="2"/>
       <c r="R149" s="1"/>
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
@@ -9129,8 +9688,10 @@
       <c r="AE149" s="1"/>
       <c r="AF149" s="1"/>
       <c r="AG149" s="1"/>
-    </row>
-    <row r="150" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH149" s="1"/>
+      <c r="AI149" s="1"/>
+    </row>
+    <row r="150" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -9145,9 +9706,9 @@
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
-      <c r="O150" s="2"/>
+      <c r="O150" s="1"/>
       <c r="P150" s="1"/>
-      <c r="Q150" s="1"/>
+      <c r="Q150" s="2"/>
       <c r="R150" s="1"/>
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
@@ -9164,8 +9725,10 @@
       <c r="AE150" s="1"/>
       <c r="AF150" s="1"/>
       <c r="AG150" s="1"/>
-    </row>
-    <row r="151" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH150" s="1"/>
+      <c r="AI150" s="1"/>
+    </row>
+    <row r="151" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -9180,9 +9743,9 @@
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
-      <c r="O151" s="2"/>
+      <c r="O151" s="1"/>
       <c r="P151" s="1"/>
-      <c r="Q151" s="1"/>
+      <c r="Q151" s="2"/>
       <c r="R151" s="1"/>
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
@@ -9199,8 +9762,10 @@
       <c r="AE151" s="1"/>
       <c r="AF151" s="1"/>
       <c r="AG151" s="1"/>
-    </row>
-    <row r="152" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH151" s="1"/>
+      <c r="AI151" s="1"/>
+    </row>
+    <row r="152" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -9215,9 +9780,9 @@
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
-      <c r="O152" s="2"/>
+      <c r="O152" s="1"/>
       <c r="P152" s="1"/>
-      <c r="Q152" s="1"/>
+      <c r="Q152" s="2"/>
       <c r="R152" s="1"/>
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
@@ -9234,8 +9799,10 @@
       <c r="AE152" s="1"/>
       <c r="AF152" s="1"/>
       <c r="AG152" s="1"/>
-    </row>
-    <row r="153" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH152" s="1"/>
+      <c r="AI152" s="1"/>
+    </row>
+    <row r="153" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -9250,9 +9817,9 @@
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
-      <c r="O153" s="2"/>
+      <c r="O153" s="1"/>
       <c r="P153" s="1"/>
-      <c r="Q153" s="1"/>
+      <c r="Q153" s="2"/>
       <c r="R153" s="1"/>
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
@@ -9269,8 +9836,10 @@
       <c r="AE153" s="1"/>
       <c r="AF153" s="1"/>
       <c r="AG153" s="1"/>
-    </row>
-    <row r="154" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH153" s="1"/>
+      <c r="AI153" s="1"/>
+    </row>
+    <row r="154" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -9285,9 +9854,9 @@
       <c r="L154" s="1"/>
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
-      <c r="O154" s="2"/>
+      <c r="O154" s="1"/>
       <c r="P154" s="1"/>
-      <c r="Q154" s="1"/>
+      <c r="Q154" s="2"/>
       <c r="R154" s="1"/>
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
@@ -9304,8 +9873,10 @@
       <c r="AE154" s="1"/>
       <c r="AF154" s="1"/>
       <c r="AG154" s="1"/>
-    </row>
-    <row r="155" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH154" s="1"/>
+      <c r="AI154" s="1"/>
+    </row>
+    <row r="155" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -9320,9 +9891,9 @@
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
-      <c r="O155" s="2"/>
+      <c r="O155" s="1"/>
       <c r="P155" s="1"/>
-      <c r="Q155" s="1"/>
+      <c r="Q155" s="2"/>
       <c r="R155" s="1"/>
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
@@ -9339,8 +9910,10 @@
       <c r="AE155" s="1"/>
       <c r="AF155" s="1"/>
       <c r="AG155" s="1"/>
-    </row>
-    <row r="156" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH155" s="1"/>
+      <c r="AI155" s="1"/>
+    </row>
+    <row r="156" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -9355,9 +9928,9 @@
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
-      <c r="O156" s="2"/>
+      <c r="O156" s="1"/>
       <c r="P156" s="1"/>
-      <c r="Q156" s="1"/>
+      <c r="Q156" s="2"/>
       <c r="R156" s="1"/>
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
@@ -9374,8 +9947,10 @@
       <c r="AE156" s="1"/>
       <c r="AF156" s="1"/>
       <c r="AG156" s="1"/>
-    </row>
-    <row r="157" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH156" s="1"/>
+      <c r="AI156" s="1"/>
+    </row>
+    <row r="157" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -9390,9 +9965,9 @@
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
-      <c r="O157" s="2"/>
+      <c r="O157" s="1"/>
       <c r="P157" s="1"/>
-      <c r="Q157" s="1"/>
+      <c r="Q157" s="2"/>
       <c r="R157" s="1"/>
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
@@ -9409,8 +9984,10 @@
       <c r="AE157" s="1"/>
       <c r="AF157" s="1"/>
       <c r="AG157" s="1"/>
-    </row>
-    <row r="158" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH157" s="1"/>
+      <c r="AI157" s="1"/>
+    </row>
+    <row r="158" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -9425,9 +10002,9 @@
       <c r="L158" s="1"/>
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
-      <c r="O158" s="2"/>
+      <c r="O158" s="1"/>
       <c r="P158" s="1"/>
-      <c r="Q158" s="1"/>
+      <c r="Q158" s="2"/>
       <c r="R158" s="1"/>
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
@@ -9444,8 +10021,10 @@
       <c r="AE158" s="1"/>
       <c r="AF158" s="1"/>
       <c r="AG158" s="1"/>
-    </row>
-    <row r="159" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH158" s="1"/>
+      <c r="AI158" s="1"/>
+    </row>
+    <row r="159" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -9460,9 +10039,9 @@
       <c r="L159" s="1"/>
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
-      <c r="O159" s="2"/>
+      <c r="O159" s="1"/>
       <c r="P159" s="1"/>
-      <c r="Q159" s="1"/>
+      <c r="Q159" s="2"/>
       <c r="R159" s="1"/>
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
@@ -9479,8 +10058,10 @@
       <c r="AE159" s="1"/>
       <c r="AF159" s="1"/>
       <c r="AG159" s="1"/>
-    </row>
-    <row r="160" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH159" s="1"/>
+      <c r="AI159" s="1"/>
+    </row>
+    <row r="160" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -9495,9 +10076,9 @@
       <c r="L160" s="1"/>
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
-      <c r="O160" s="2"/>
+      <c r="O160" s="1"/>
       <c r="P160" s="1"/>
-      <c r="Q160" s="1"/>
+      <c r="Q160" s="2"/>
       <c r="R160" s="1"/>
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
@@ -9514,8 +10095,10 @@
       <c r="AE160" s="1"/>
       <c r="AF160" s="1"/>
       <c r="AG160" s="1"/>
-    </row>
-    <row r="161" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH160" s="1"/>
+      <c r="AI160" s="1"/>
+    </row>
+    <row r="161" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -9530,9 +10113,9 @@
       <c r="L161" s="1"/>
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
-      <c r="O161" s="2"/>
+      <c r="O161" s="1"/>
       <c r="P161" s="1"/>
-      <c r="Q161" s="1"/>
+      <c r="Q161" s="2"/>
       <c r="R161" s="1"/>
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
@@ -9549,8 +10132,10 @@
       <c r="AE161" s="1"/>
       <c r="AF161" s="1"/>
       <c r="AG161" s="1"/>
-    </row>
-    <row r="162" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH161" s="1"/>
+      <c r="AI161" s="1"/>
+    </row>
+    <row r="162" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -9565,9 +10150,9 @@
       <c r="L162" s="1"/>
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
-      <c r="O162" s="2"/>
+      <c r="O162" s="1"/>
       <c r="P162" s="1"/>
-      <c r="Q162" s="1"/>
+      <c r="Q162" s="2"/>
       <c r="R162" s="1"/>
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
@@ -9584,8 +10169,10 @@
       <c r="AE162" s="1"/>
       <c r="AF162" s="1"/>
       <c r="AG162" s="1"/>
-    </row>
-    <row r="163" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH162" s="1"/>
+      <c r="AI162" s="1"/>
+    </row>
+    <row r="163" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -9600,9 +10187,9 @@
       <c r="L163" s="1"/>
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
-      <c r="O163" s="2"/>
+      <c r="O163" s="1"/>
       <c r="P163" s="1"/>
-      <c r="Q163" s="1"/>
+      <c r="Q163" s="2"/>
       <c r="R163" s="1"/>
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
@@ -9619,8 +10206,10 @@
       <c r="AE163" s="1"/>
       <c r="AF163" s="1"/>
       <c r="AG163" s="1"/>
-    </row>
-    <row r="164" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH163" s="1"/>
+      <c r="AI163" s="1"/>
+    </row>
+    <row r="164" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -9635,9 +10224,9 @@
       <c r="L164" s="1"/>
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
-      <c r="O164" s="2"/>
+      <c r="O164" s="1"/>
       <c r="P164" s="1"/>
-      <c r="Q164" s="1"/>
+      <c r="Q164" s="2"/>
       <c r="R164" s="1"/>
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
@@ -9654,19 +10243,21 @@
       <c r="AE164" s="1"/>
       <c r="AF164" s="1"/>
       <c r="AG164" s="1"/>
-    </row>
-    <row r="165" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="AH164" s="1"/>
+      <c r="AI164" s="1"/>
+    </row>
+    <row r="165" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10374,64 +10965,64 @@
     <mergeCell ref="A25:A27"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="O3" r:id="rId1" xr:uid="{4EEF9A02-49FB-F34A-9D8A-A2E804A34701}"/>
-    <hyperlink ref="O9" r:id="rId2" xr:uid="{81B12C89-FD20-A941-9146-8BA196827F7E}"/>
-    <hyperlink ref="O5" r:id="rId3" xr:uid="{FA6192B7-2232-934C-9EB6-14ADF68260DA}"/>
-    <hyperlink ref="O4" r:id="rId4" xr:uid="{B02C30B3-C56D-5940-8E8D-E40970EED443}"/>
-    <hyperlink ref="O31" r:id="rId5" xr:uid="{764DF23B-EC1A-8D47-BEF4-8D7813CCABA9}"/>
-    <hyperlink ref="O32" r:id="rId6" xr:uid="{73862B72-9E11-FE46-81E2-364D8D04FF88}"/>
-    <hyperlink ref="O110" r:id="rId7" xr:uid="{F73F767C-4BB6-5D46-ADE9-1F1B773D2B5C}"/>
-    <hyperlink ref="O109" r:id="rId8" xr:uid="{2D7AD1BB-A6AB-A14C-9DCB-1E1A9698E0D3}"/>
-    <hyperlink ref="O115" r:id="rId9" xr:uid="{82E1373F-8D14-7D4D-93E0-F9A1568F1974}"/>
-    <hyperlink ref="O105" r:id="rId10" xr:uid="{D380FC82-5860-1145-80F5-29FD021D68B9}"/>
-    <hyperlink ref="O106" r:id="rId11" xr:uid="{9DE5631B-6681-BB4D-BDB0-42AC20A059F8}"/>
-    <hyperlink ref="O107" r:id="rId12" xr:uid="{3CD3CF1E-F5A9-A840-962F-7BC7702B915A}"/>
-    <hyperlink ref="O111" r:id="rId13" xr:uid="{329BE997-1440-5B47-BD86-5E12839125D4}"/>
-    <hyperlink ref="O114" r:id="rId14" xr:uid="{6FC69CA6-A485-AE48-95B1-010ABEC181B4}"/>
-    <hyperlink ref="O20" r:id="rId15" xr:uid="{581B34D2-9C04-B844-BCBE-06048846762D}"/>
-    <hyperlink ref="O26" r:id="rId16" xr:uid="{57BF47FE-7D21-CC48-AC1A-C80C30D7D801}"/>
-    <hyperlink ref="O27" r:id="rId17" xr:uid="{881A94E9-CAB1-DB47-859D-3BAF471FDECF}"/>
-    <hyperlink ref="O25" r:id="rId18" xr:uid="{358D5919-1AFD-2E46-A345-23BE36B3689F}"/>
-    <hyperlink ref="O21" r:id="rId19" xr:uid="{6B186369-D66F-1741-B62F-B180C73FE20A}"/>
-    <hyperlink ref="O22" r:id="rId20" xr:uid="{67EED017-1443-B447-AEB9-42259BA685D9}"/>
-    <hyperlink ref="O23" r:id="rId21" xr:uid="{4CC7D458-2907-4D4A-9294-52DD7162C330}"/>
-    <hyperlink ref="O16" r:id="rId22" xr:uid="{84DD28FE-CA48-B74C-9B13-29C184604681}"/>
-    <hyperlink ref="O95" r:id="rId23" xr:uid="{DDB10315-9687-CA4C-BC73-CA878221E6CF}"/>
-    <hyperlink ref="O98" r:id="rId24" xr:uid="{71236614-95F7-BE40-976A-9F20E7597150}"/>
-    <hyperlink ref="O97" r:id="rId25" xr:uid="{D27993BE-0E83-5447-BCDD-A80BC6C79F70}"/>
-    <hyperlink ref="O96" r:id="rId26" xr:uid="{DB9EF619-9467-234C-B197-1DCB58977944}"/>
-    <hyperlink ref="O94" r:id="rId27" xr:uid="{9DC15784-33DB-9440-AD0B-B84692009027}"/>
-    <hyperlink ref="O93" r:id="rId28" xr:uid="{7FA1FFA3-7DB7-1648-B1F9-A92658A317ED}"/>
-    <hyperlink ref="O92" r:id="rId29" xr:uid="{B81EE69F-71C0-0A49-8004-A8175E272373}"/>
-    <hyperlink ref="O91" r:id="rId30" xr:uid="{E21BE2B7-1C4F-3840-9AB0-26B21F728117}"/>
-    <hyperlink ref="O103" r:id="rId31" xr:uid="{8714C450-7AB3-2B44-8A8E-61473C0501A0}"/>
-    <hyperlink ref="O101" r:id="rId32" xr:uid="{AE55268D-32E6-9241-B49F-4F7B51DB8A59}"/>
-    <hyperlink ref="O87" r:id="rId33" xr:uid="{DD859F19-6B1B-AE4C-90BE-C8F912B3BAB7}"/>
-    <hyperlink ref="O79" r:id="rId34" xr:uid="{706955E3-FDB4-9C46-86EE-128C74E03547}"/>
-    <hyperlink ref="O30" r:id="rId35" xr:uid="{136A547E-DA64-C246-AF7C-26F50E283843}"/>
-    <hyperlink ref="O57" r:id="rId36" xr:uid="{AA42EBAB-23E4-964C-AC13-9E863CD92D29}"/>
-    <hyperlink ref="O59" r:id="rId37" xr:uid="{A9A6E541-F7BC-FD4A-84D7-803DA8A975AB}"/>
-    <hyperlink ref="O58" r:id="rId38" xr:uid="{01378C43-9B3A-3741-9129-61E30C3C5604}"/>
-    <hyperlink ref="O67" r:id="rId39" xr:uid="{3820232E-4065-5A43-913C-98257FC286C7}"/>
-    <hyperlink ref="O66" r:id="rId40" xr:uid="{DFE6DA52-FD9F-8E4E-82AA-1DB74B611A6E}"/>
-    <hyperlink ref="O69" r:id="rId41" xr:uid="{867A9723-FFB4-3B4B-9286-36102C080507}"/>
-    <hyperlink ref="O71" r:id="rId42" xr:uid="{74BF87E6-EBF2-CB4D-994A-8498747635A0}"/>
-    <hyperlink ref="O83" r:id="rId43" xr:uid="{BD54E36D-9846-6242-B6B2-305D557D6C05}"/>
-    <hyperlink ref="O78" r:id="rId44" xr:uid="{D52F70DA-772F-7C49-AC05-8394CEA45E21}"/>
-    <hyperlink ref="O43" r:id="rId45" xr:uid="{111B6513-1D33-6743-BBE0-71C0E2D8A504}"/>
-    <hyperlink ref="O45" r:id="rId46" xr:uid="{D49D721C-A333-5149-A205-34AD6E26917F}"/>
-    <hyperlink ref="O35" r:id="rId47" xr:uid="{173C9C36-A68D-4647-B381-16AD53E70612}"/>
-    <hyperlink ref="O68" r:id="rId48" xr:uid="{4B4FC91B-E79F-2541-80DB-A4D7114FD167}"/>
-    <hyperlink ref="O85" r:id="rId49" xr:uid="{6710643B-3CE5-6348-9A5C-FBFB721D5C1D}"/>
-    <hyperlink ref="O42" r:id="rId50" xr:uid="{CE6E1B8E-650B-7645-A875-01D324D9C7BE}"/>
-    <hyperlink ref="O77" r:id="rId51" xr:uid="{E56760F1-A773-E74A-BE41-29356D7ADD5F}"/>
-    <hyperlink ref="O46" r:id="rId52" xr:uid="{DBEF5FAC-F90D-B745-9DD9-AFAFC119E59A}"/>
-    <hyperlink ref="O120" r:id="rId53" xr:uid="{FA27A36B-F1D4-D841-AEC1-F7C0C1593191}"/>
-    <hyperlink ref="O119" r:id="rId54" xr:uid="{137FBE7E-E8C2-D848-B8AF-B96E4C84C8AC}"/>
-    <hyperlink ref="O118" r:id="rId55" xr:uid="{E4C00358-BDCE-834C-AD1A-69AB3FE28B85}"/>
-    <hyperlink ref="O117" r:id="rId56" xr:uid="{BF91FA62-9517-F04B-9121-AD145D2A1C1A}"/>
-    <hyperlink ref="O116" r:id="rId57" xr:uid="{49CD5F97-3750-8845-8659-922B9AA8C15F}"/>
-    <hyperlink ref="O34" r:id="rId58" xr:uid="{DF3C5AE6-459A-0445-A014-BA1F9BC605AA}"/>
+    <hyperlink ref="Q3" r:id="rId1" xr:uid="{4EEF9A02-49FB-F34A-9D8A-A2E804A34701}"/>
+    <hyperlink ref="Q9" r:id="rId2" xr:uid="{81B12C89-FD20-A941-9146-8BA196827F7E}"/>
+    <hyperlink ref="Q5" r:id="rId3" xr:uid="{FA6192B7-2232-934C-9EB6-14ADF68260DA}"/>
+    <hyperlink ref="Q4" r:id="rId4" xr:uid="{B02C30B3-C56D-5940-8E8D-E40970EED443}"/>
+    <hyperlink ref="Q31" r:id="rId5" xr:uid="{764DF23B-EC1A-8D47-BEF4-8D7813CCABA9}"/>
+    <hyperlink ref="Q32" r:id="rId6" xr:uid="{73862B72-9E11-FE46-81E2-364D8D04FF88}"/>
+    <hyperlink ref="Q110" r:id="rId7" xr:uid="{F73F767C-4BB6-5D46-ADE9-1F1B773D2B5C}"/>
+    <hyperlink ref="Q109" r:id="rId8" xr:uid="{2D7AD1BB-A6AB-A14C-9DCB-1E1A9698E0D3}"/>
+    <hyperlink ref="Q115" r:id="rId9" xr:uid="{82E1373F-8D14-7D4D-93E0-F9A1568F1974}"/>
+    <hyperlink ref="Q105" r:id="rId10" xr:uid="{D380FC82-5860-1145-80F5-29FD021D68B9}"/>
+    <hyperlink ref="Q106" r:id="rId11" xr:uid="{9DE5631B-6681-BB4D-BDB0-42AC20A059F8}"/>
+    <hyperlink ref="Q107" r:id="rId12" xr:uid="{3CD3CF1E-F5A9-A840-962F-7BC7702B915A}"/>
+    <hyperlink ref="Q111" r:id="rId13" xr:uid="{329BE997-1440-5B47-BD86-5E12839125D4}"/>
+    <hyperlink ref="Q114" r:id="rId14" xr:uid="{6FC69CA6-A485-AE48-95B1-010ABEC181B4}"/>
+    <hyperlink ref="Q20" r:id="rId15" xr:uid="{581B34D2-9C04-B844-BCBE-06048846762D}"/>
+    <hyperlink ref="Q26" r:id="rId16" xr:uid="{57BF47FE-7D21-CC48-AC1A-C80C30D7D801}"/>
+    <hyperlink ref="Q27" r:id="rId17" xr:uid="{881A94E9-CAB1-DB47-859D-3BAF471FDECF}"/>
+    <hyperlink ref="Q25" r:id="rId18" xr:uid="{358D5919-1AFD-2E46-A345-23BE36B3689F}"/>
+    <hyperlink ref="Q21" r:id="rId19" xr:uid="{6B186369-D66F-1741-B62F-B180C73FE20A}"/>
+    <hyperlink ref="Q22" r:id="rId20" xr:uid="{67EED017-1443-B447-AEB9-42259BA685D9}"/>
+    <hyperlink ref="Q23" r:id="rId21" xr:uid="{4CC7D458-2907-4D4A-9294-52DD7162C330}"/>
+    <hyperlink ref="Q16" r:id="rId22" xr:uid="{84DD28FE-CA48-B74C-9B13-29C184604681}"/>
+    <hyperlink ref="Q95" r:id="rId23" xr:uid="{DDB10315-9687-CA4C-BC73-CA878221E6CF}"/>
+    <hyperlink ref="Q98" r:id="rId24" xr:uid="{71236614-95F7-BE40-976A-9F20E7597150}"/>
+    <hyperlink ref="Q97" r:id="rId25" xr:uid="{D27993BE-0E83-5447-BCDD-A80BC6C79F70}"/>
+    <hyperlink ref="Q96" r:id="rId26" xr:uid="{DB9EF619-9467-234C-B197-1DCB58977944}"/>
+    <hyperlink ref="Q94" r:id="rId27" xr:uid="{9DC15784-33DB-9440-AD0B-B84692009027}"/>
+    <hyperlink ref="Q93" r:id="rId28" xr:uid="{7FA1FFA3-7DB7-1648-B1F9-A92658A317ED}"/>
+    <hyperlink ref="Q92" r:id="rId29" xr:uid="{B81EE69F-71C0-0A49-8004-A8175E272373}"/>
+    <hyperlink ref="Q91" r:id="rId30" xr:uid="{E21BE2B7-1C4F-3840-9AB0-26B21F728117}"/>
+    <hyperlink ref="Q103" r:id="rId31" xr:uid="{8714C450-7AB3-2B44-8A8E-61473C0501A0}"/>
+    <hyperlink ref="Q101" r:id="rId32" xr:uid="{AE55268D-32E6-9241-B49F-4F7B51DB8A59}"/>
+    <hyperlink ref="Q87" r:id="rId33" xr:uid="{DD859F19-6B1B-AE4C-90BE-C8F912B3BAB7}"/>
+    <hyperlink ref="Q79" r:id="rId34" xr:uid="{706955E3-FDB4-9C46-86EE-128C74E03547}"/>
+    <hyperlink ref="Q30" r:id="rId35" xr:uid="{136A547E-DA64-C246-AF7C-26F50E283843}"/>
+    <hyperlink ref="Q57" r:id="rId36" xr:uid="{AA42EBAB-23E4-964C-AC13-9E863CD92D29}"/>
+    <hyperlink ref="Q59" r:id="rId37" xr:uid="{A9A6E541-F7BC-FD4A-84D7-803DA8A975AB}"/>
+    <hyperlink ref="Q58" r:id="rId38" xr:uid="{01378C43-9B3A-3741-9129-61E30C3C5604}"/>
+    <hyperlink ref="Q67" r:id="rId39" xr:uid="{3820232E-4065-5A43-913C-98257FC286C7}"/>
+    <hyperlink ref="Q66" r:id="rId40" xr:uid="{DFE6DA52-FD9F-8E4E-82AA-1DB74B611A6E}"/>
+    <hyperlink ref="Q69" r:id="rId41" xr:uid="{867A9723-FFB4-3B4B-9286-36102C080507}"/>
+    <hyperlink ref="Q71" r:id="rId42" xr:uid="{74BF87E6-EBF2-CB4D-994A-8498747635A0}"/>
+    <hyperlink ref="Q83" r:id="rId43" xr:uid="{BD54E36D-9846-6242-B6B2-305D557D6C05}"/>
+    <hyperlink ref="Q78" r:id="rId44" xr:uid="{D52F70DA-772F-7C49-AC05-8394CEA45E21}"/>
+    <hyperlink ref="Q43" r:id="rId45" xr:uid="{111B6513-1D33-6743-BBE0-71C0E2D8A504}"/>
+    <hyperlink ref="Q45" r:id="rId46" xr:uid="{D49D721C-A333-5149-A205-34AD6E26917F}"/>
+    <hyperlink ref="Q35" r:id="rId47" xr:uid="{173C9C36-A68D-4647-B381-16AD53E70612}"/>
+    <hyperlink ref="Q68" r:id="rId48" xr:uid="{4B4FC91B-E79F-2541-80DB-A4D7114FD167}"/>
+    <hyperlink ref="Q85" r:id="rId49" xr:uid="{6710643B-3CE5-6348-9A5C-FBFB721D5C1D}"/>
+    <hyperlink ref="Q42" r:id="rId50" xr:uid="{CE6E1B8E-650B-7645-A875-01D324D9C7BE}"/>
+    <hyperlink ref="Q77" r:id="rId51" xr:uid="{E56760F1-A773-E74A-BE41-29356D7ADD5F}"/>
+    <hyperlink ref="Q46" r:id="rId52" xr:uid="{DBEF5FAC-F90D-B745-9DD9-AFAFC119E59A}"/>
+    <hyperlink ref="Q120" r:id="rId53" xr:uid="{FA27A36B-F1D4-D841-AEC1-F7C0C1593191}"/>
+    <hyperlink ref="Q119" r:id="rId54" xr:uid="{137FBE7E-E8C2-D848-B8AF-B96E4C84C8AC}"/>
+    <hyperlink ref="Q118" r:id="rId55" xr:uid="{E4C00358-BDCE-834C-AD1A-69AB3FE28B85}"/>
+    <hyperlink ref="Q117" r:id="rId56" xr:uid="{BF91FA62-9517-F04B-9121-AD145D2A1C1A}"/>
+    <hyperlink ref="Q116" r:id="rId57" xr:uid="{49CD5F97-3750-8845-8659-922B9AA8C15F}"/>
+    <hyperlink ref="Q34" r:id="rId58" xr:uid="{DF3C5AE6-459A-0445-A014-BA1F9BC605AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
